--- a/Asset Data/IGP/Asset_Data_IGP/Coal Plants/coal_plants_main.xlsx
+++ b/Asset Data/IGP/Asset_Data_IGP/Coal Plants/coal_plants_main.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APAD_oxford\Final_Dataset_Folder\dataset\APAD-Asset-Data\Asset Data\IGP\Asset_Data_IGP\Coal Plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6B16A458-29B4-4D4F-91BD-17CF13EDB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A105163-660D-4096-92AC-4474A7B9C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E8452AE1-DF3A-49AB-8A59-5FF8DBEFBD01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8452AE1-DF3A-49AB-8A59-5FF8DBEFBD01}"/>
   </bookViews>
   <sheets>
     <sheet name="coal_plants_main" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2003,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE183BC9-8D34-443D-A17E-A52D34E7E81A}">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,8 +2025,10 @@
     <col min="2" max="2" width="57.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -2115,32 +2130,32 @@
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="M2" s="2">
-        <f>(K2*L2)/1000</f>
-        <v>1701.63</v>
+        <f>((K2*L2)/1000)*0.05</f>
+        <v>85.081500000000005</v>
       </c>
       <c r="N2" s="2">
         <f>Sheet1!$D$2</f>
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="O2" s="2">
-        <f>(K2*N2)/1000</f>
-        <v>873.81</v>
+        <f>((K2*N2)/1000)*0.05</f>
+        <v>43.6905</v>
       </c>
       <c r="P2" s="2">
         <f>Sheet1!$D$3</f>
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="Q2" s="2">
-        <f>(K2*P2)/1000</f>
-        <v>33112.800000000003</v>
+        <f>((K2*P2)/1000)*0.05</f>
+        <v>1655.6400000000003</v>
       </c>
       <c r="R2" s="2">
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
       <c r="S2" s="2">
-        <f>(R2*K2)/1000</f>
-        <v>19775.7</v>
+        <f>((R2*K2)/1000*0.05)</f>
+        <v>988.78500000000008</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -2183,32 +2198,32 @@
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" ref="M3:M66" si="0">(K3*L3)/1000</f>
-        <v>4278.384</v>
+        <f t="shared" ref="M3:M66" si="0">((K3*L3)/1000)*0.05</f>
+        <v>213.91920000000002</v>
       </c>
       <c r="N3" s="2">
         <f>Sheet1!$D$2</f>
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O66" si="1">(K3*N3)/1000</f>
-        <v>2197.0079999999998</v>
+        <f t="shared" ref="O3:O66" si="1">((K3*N3)/1000)*0.05</f>
+        <v>109.85039999999999</v>
       </c>
       <c r="P3" s="2">
         <f>Sheet1!$D$3</f>
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q66" si="2">(K3*P3)/1000</f>
-        <v>83255.039999999994</v>
+        <f t="shared" ref="Q3:Q66" si="2">((K3*P3)/1000)*0.05</f>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R3" s="2">
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S66" si="3">(R3*K3)/1000</f>
-        <v>49721.760000000002</v>
+        <f t="shared" ref="S3:S66" si="3">((R3*K3)/1000*0.05)</f>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -2252,7 +2267,7 @@
       </c>
       <c r="M4" s="2">
         <f t="shared" si="0"/>
-        <v>8556.768</v>
+        <v>427.83840000000004</v>
       </c>
       <c r="N4" s="2">
         <f>Sheet1!$D$2</f>
@@ -2260,7 +2275,7 @@
       </c>
       <c r="O4" s="2">
         <f t="shared" si="1"/>
-        <v>4394.0159999999996</v>
+        <v>219.70079999999999</v>
       </c>
       <c r="P4" s="2">
         <f>Sheet1!$D$3</f>
@@ -2268,7 +2283,7 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="2"/>
-        <v>166510.07999999999</v>
+        <v>8325.503999999999</v>
       </c>
       <c r="R4" s="2">
         <f>Sheet1!$D$4</f>
@@ -2276,7 +2291,7 @@
       </c>
       <c r="S4" s="2">
         <f t="shared" si="3"/>
-        <v>99443.520000000004</v>
+        <v>4972.1760000000004</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -2320,7 +2335,7 @@
       </c>
       <c r="M5" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N5" s="2">
         <f>Sheet1!$D$2</f>
@@ -2328,7 +2343,7 @@
       </c>
       <c r="O5" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P5" s="2">
         <f>Sheet1!$D$3</f>
@@ -2336,7 +2351,7 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R5" s="2">
         <f>Sheet1!$D$4</f>
@@ -2344,7 +2359,7 @@
       </c>
       <c r="S5" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2388,7 +2403,7 @@
       </c>
       <c r="M6" s="2">
         <f t="shared" si="0"/>
-        <v>5185.92</v>
+        <v>259.29599999999999</v>
       </c>
       <c r="N6" s="2">
         <f>Sheet1!$D$2</f>
@@ -2396,7 +2411,7 @@
       </c>
       <c r="O6" s="2">
         <f t="shared" si="1"/>
-        <v>2663.04</v>
+        <v>133.15200000000002</v>
       </c>
       <c r="P6" s="2">
         <f>Sheet1!$D$3</f>
@@ -2404,7 +2419,7 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="2"/>
-        <v>100915.2</v>
+        <v>5045.76</v>
       </c>
       <c r="R6" s="2">
         <f>Sheet1!$D$4</f>
@@ -2412,7 +2427,7 @@
       </c>
       <c r="S6" s="2">
         <f t="shared" si="3"/>
-        <v>60268.800000000003</v>
+        <v>3013.4400000000005</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2456,7 +2471,7 @@
       </c>
       <c r="M7" s="2">
         <f t="shared" si="0"/>
-        <v>2592.96</v>
+        <v>129.648</v>
       </c>
       <c r="N7" s="2">
         <f>Sheet1!$D$2</f>
@@ -2464,7 +2479,7 @@
       </c>
       <c r="O7" s="2">
         <f t="shared" si="1"/>
-        <v>1331.52</v>
+        <v>66.576000000000008</v>
       </c>
       <c r="P7" s="2">
         <f>Sheet1!$D$3</f>
@@ -2472,7 +2487,7 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="2"/>
-        <v>50457.599999999999</v>
+        <v>2522.88</v>
       </c>
       <c r="R7" s="2">
         <f>Sheet1!$D$4</f>
@@ -2480,7 +2495,7 @@
       </c>
       <c r="S7" s="2">
         <f t="shared" si="3"/>
-        <v>30134.400000000001</v>
+        <v>1506.7200000000003</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2524,7 +2539,7 @@
       </c>
       <c r="M8" s="2">
         <f t="shared" si="0"/>
-        <v>2592.96</v>
+        <v>129.648</v>
       </c>
       <c r="N8" s="2">
         <f>Sheet1!$D$2</f>
@@ -2532,7 +2547,7 @@
       </c>
       <c r="O8" s="2">
         <f t="shared" si="1"/>
-        <v>1331.52</v>
+        <v>66.576000000000008</v>
       </c>
       <c r="P8" s="2">
         <f>Sheet1!$D$3</f>
@@ -2540,7 +2555,7 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="2"/>
-        <v>50457.599999999999</v>
+        <v>2522.88</v>
       </c>
       <c r="R8" s="2">
         <f>Sheet1!$D$4</f>
@@ -2548,7 +2563,7 @@
       </c>
       <c r="S8" s="2">
         <f t="shared" si="3"/>
-        <v>30134.400000000001</v>
+        <v>1506.7200000000003</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2592,7 +2607,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" si="0"/>
-        <v>5283.1559999999999</v>
+        <v>264.15780000000001</v>
       </c>
       <c r="N9" s="2">
         <f>Sheet1!$D$2</f>
@@ -2600,7 +2615,7 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" si="1"/>
-        <v>2712.9720000000002</v>
+        <v>135.64860000000002</v>
       </c>
       <c r="P9" s="2">
         <f>Sheet1!$D$3</f>
@@ -2608,7 +2623,7 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="2"/>
-        <v>102807.36</v>
+        <v>5140.3680000000004</v>
       </c>
       <c r="R9" s="2">
         <f>Sheet1!$D$4</f>
@@ -2616,7 +2631,7 @@
       </c>
       <c r="S9" s="2">
         <f t="shared" si="3"/>
-        <v>61398.84</v>
+        <v>3069.942</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2660,7 +2675,7 @@
       </c>
       <c r="M10" s="2">
         <f t="shared" si="0"/>
-        <v>3889.44</v>
+        <v>194.47200000000001</v>
       </c>
       <c r="N10" s="2">
         <f>Sheet1!$D$2</f>
@@ -2668,7 +2683,7 @@
       </c>
       <c r="O10" s="2">
         <f t="shared" si="1"/>
-        <v>1997.28</v>
+        <v>99.864000000000004</v>
       </c>
       <c r="P10" s="2">
         <f>Sheet1!$D$3</f>
@@ -2676,7 +2691,7 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="2"/>
-        <v>75686.399999999994</v>
+        <v>3784.3199999999997</v>
       </c>
       <c r="R10" s="2">
         <f>Sheet1!$D$4</f>
@@ -2684,7 +2699,7 @@
       </c>
       <c r="S10" s="2">
         <f t="shared" si="3"/>
-        <v>45201.599999999999</v>
+        <v>2260.08</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2728,7 +2743,7 @@
       </c>
       <c r="M11" s="2">
         <f t="shared" si="0"/>
-        <v>3241.2</v>
+        <v>162.06</v>
       </c>
       <c r="N11" s="2">
         <f>Sheet1!$D$2</f>
@@ -2736,7 +2751,7 @@
       </c>
       <c r="O11" s="2">
         <f t="shared" si="1"/>
-        <v>1664.4</v>
+        <v>83.220000000000013</v>
       </c>
       <c r="P11" s="2">
         <f>Sheet1!$D$3</f>
@@ -2744,7 +2759,7 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="2"/>
-        <v>63072</v>
+        <v>3153.6000000000004</v>
       </c>
       <c r="R11" s="2">
         <f>Sheet1!$D$4</f>
@@ -2752,7 +2767,7 @@
       </c>
       <c r="S11" s="2">
         <f t="shared" si="3"/>
-        <v>37668</v>
+        <v>1883.4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -2796,7 +2811,7 @@
       </c>
       <c r="M12" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N12" s="2">
         <f>Sheet1!$D$2</f>
@@ -2804,7 +2819,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P12" s="2">
         <f>Sheet1!$D$3</f>
@@ -2812,7 +2827,7 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R12" s="2">
         <f>Sheet1!$D$4</f>
@@ -2820,7 +2835,7 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -2864,7 +2879,7 @@
       </c>
       <c r="M13" s="2">
         <f t="shared" si="0"/>
-        <v>129.648</v>
+        <v>6.4824000000000002</v>
       </c>
       <c r="N13" s="2">
         <f>Sheet1!$D$2</f>
@@ -2872,7 +2887,7 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="1"/>
-        <v>66.575999999999993</v>
+        <v>3.3287999999999998</v>
       </c>
       <c r="P13" s="2">
         <f>Sheet1!$D$3</f>
@@ -2880,7 +2895,7 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="2"/>
-        <v>2522.88</v>
+        <v>126.14400000000001</v>
       </c>
       <c r="R13" s="2">
         <f>Sheet1!$D$4</f>
@@ -2888,7 +2903,7 @@
       </c>
       <c r="S13" s="2">
         <f t="shared" si="3"/>
-        <v>1506.72</v>
+        <v>75.335999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2932,7 +2947,7 @@
       </c>
       <c r="M14" s="2">
         <f t="shared" si="0"/>
-        <v>923.74199999999996</v>
+        <v>46.187100000000001</v>
       </c>
       <c r="N14" s="2">
         <f>Sheet1!$D$2</f>
@@ -2940,7 +2955,7 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="1"/>
-        <v>474.35399999999998</v>
+        <v>23.717700000000001</v>
       </c>
       <c r="P14" s="2">
         <f>Sheet1!$D$3</f>
@@ -2948,7 +2963,7 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="2"/>
-        <v>17975.52</v>
+        <v>898.77600000000007</v>
       </c>
       <c r="R14" s="2">
         <f>Sheet1!$D$4</f>
@@ -2956,7 +2971,7 @@
       </c>
       <c r="S14" s="2">
         <f t="shared" si="3"/>
-        <v>10735.38</v>
+        <v>536.76900000000001</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3000,7 +3015,7 @@
       </c>
       <c r="M15" s="2">
         <f t="shared" si="0"/>
-        <v>1361.3040000000001</v>
+        <v>68.065200000000004</v>
       </c>
       <c r="N15" s="2">
         <f>Sheet1!$D$2</f>
@@ -3008,7 +3023,7 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="1"/>
-        <v>699.048</v>
+        <v>34.952400000000004</v>
       </c>
       <c r="P15" s="2">
         <f>Sheet1!$D$3</f>
@@ -3016,7 +3031,7 @@
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="2"/>
-        <v>26490.240000000002</v>
+        <v>1324.5120000000002</v>
       </c>
       <c r="R15" s="2">
         <f>Sheet1!$D$4</f>
@@ -3024,7 +3039,7 @@
       </c>
       <c r="S15" s="2">
         <f t="shared" si="3"/>
-        <v>15820.56</v>
+        <v>791.02800000000002</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3068,7 +3083,7 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" si="0"/>
-        <v>2041.9559999999999</v>
+        <v>102.09780000000001</v>
       </c>
       <c r="N16" s="2">
         <f>Sheet1!$D$2</f>
@@ -3076,7 +3091,7 @@
       </c>
       <c r="O16" s="2">
         <f t="shared" si="1"/>
-        <v>1048.5719999999999</v>
+        <v>52.428599999999996</v>
       </c>
       <c r="P16" s="2">
         <f>Sheet1!$D$3</f>
@@ -3084,7 +3099,7 @@
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="2"/>
-        <v>39735.360000000001</v>
+        <v>1986.768</v>
       </c>
       <c r="R16" s="2">
         <f>Sheet1!$D$4</f>
@@ -3092,7 +3107,7 @@
       </c>
       <c r="S16" s="2">
         <f t="shared" si="3"/>
-        <v>23730.84</v>
+        <v>1186.5420000000001</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -3136,7 +3151,7 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" si="0"/>
-        <v>1361.3040000000001</v>
+        <v>68.065200000000004</v>
       </c>
       <c r="N17" s="2">
         <f>Sheet1!$D$2</f>
@@ -3144,7 +3159,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" si="1"/>
-        <v>699.048</v>
+        <v>34.952400000000004</v>
       </c>
       <c r="P17" s="2">
         <f>Sheet1!$D$3</f>
@@ -3152,7 +3167,7 @@
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="2"/>
-        <v>26490.240000000002</v>
+        <v>1324.5120000000002</v>
       </c>
       <c r="R17" s="2">
         <f>Sheet1!$D$4</f>
@@ -3160,7 +3175,7 @@
       </c>
       <c r="S17" s="2">
         <f t="shared" si="3"/>
-        <v>15820.56</v>
+        <v>791.02800000000002</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3204,7 +3219,7 @@
       </c>
       <c r="M18" s="2">
         <f t="shared" si="0"/>
-        <v>1458.54</v>
+        <v>72.927000000000007</v>
       </c>
       <c r="N18" s="2">
         <f>Sheet1!$D$2</f>
@@ -3212,7 +3227,7 @@
       </c>
       <c r="O18" s="2">
         <f t="shared" si="1"/>
-        <v>748.98</v>
+        <v>37.449000000000005</v>
       </c>
       <c r="P18" s="2">
         <f>Sheet1!$D$3</f>
@@ -3220,7 +3235,7 @@
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="2"/>
-        <v>28382.400000000001</v>
+        <v>1419.1200000000001</v>
       </c>
       <c r="R18" s="2">
         <f>Sheet1!$D$4</f>
@@ -3228,7 +3243,7 @@
       </c>
       <c r="S18" s="2">
         <f t="shared" si="3"/>
-        <v>16950.599999999999</v>
+        <v>847.53</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3272,7 +3287,7 @@
       </c>
       <c r="M19" s="2">
         <f t="shared" si="0"/>
-        <v>8556.768</v>
+        <v>427.83840000000004</v>
       </c>
       <c r="N19" s="2">
         <f>Sheet1!$D$2</f>
@@ -3280,7 +3295,7 @@
       </c>
       <c r="O19" s="2">
         <f t="shared" si="1"/>
-        <v>4394.0159999999996</v>
+        <v>219.70079999999999</v>
       </c>
       <c r="P19" s="2">
         <f>Sheet1!$D$3</f>
@@ -3288,7 +3303,7 @@
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="2"/>
-        <v>166510.07999999999</v>
+        <v>8325.503999999999</v>
       </c>
       <c r="R19" s="2">
         <f>Sheet1!$D$4</f>
@@ -3296,7 +3311,7 @@
       </c>
       <c r="S19" s="2">
         <f t="shared" si="3"/>
-        <v>99443.520000000004</v>
+        <v>4972.1760000000004</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -3340,7 +3355,7 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" si="0"/>
-        <v>6417.576</v>
+        <v>320.87880000000001</v>
       </c>
       <c r="N20" s="2">
         <f>Sheet1!$D$2</f>
@@ -3348,7 +3363,7 @@
       </c>
       <c r="O20" s="2">
         <f t="shared" si="1"/>
-        <v>3295.5120000000002</v>
+        <v>164.77560000000003</v>
       </c>
       <c r="P20" s="2">
         <f>Sheet1!$D$3</f>
@@ -3356,7 +3371,7 @@
       </c>
       <c r="Q20" s="2">
         <f t="shared" si="2"/>
-        <v>124882.56</v>
+        <v>6244.1280000000006</v>
       </c>
       <c r="R20" s="2">
         <f>Sheet1!$D$4</f>
@@ -3364,7 +3379,7 @@
       </c>
       <c r="S20" s="2">
         <f t="shared" si="3"/>
-        <v>74582.64</v>
+        <v>3729.1320000000001</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -3408,7 +3423,7 @@
       </c>
       <c r="M21" s="2">
         <f t="shared" si="0"/>
-        <v>2333.6640000000002</v>
+        <v>116.68320000000001</v>
       </c>
       <c r="N21" s="2">
         <f>Sheet1!$D$2</f>
@@ -3416,7 +3431,7 @@
       </c>
       <c r="O21" s="2">
         <f t="shared" si="1"/>
-        <v>1198.3679999999999</v>
+        <v>59.918399999999998</v>
       </c>
       <c r="P21" s="2">
         <f>Sheet1!$D$3</f>
@@ -3424,7 +3439,7 @@
       </c>
       <c r="Q21" s="2">
         <f t="shared" si="2"/>
-        <v>45411.839999999997</v>
+        <v>2270.5920000000001</v>
       </c>
       <c r="R21" s="2">
         <f>Sheet1!$D$4</f>
@@ -3432,7 +3447,7 @@
       </c>
       <c r="S21" s="2">
         <f t="shared" si="3"/>
-        <v>27120.959999999999</v>
+        <v>1356.048</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -3476,7 +3491,7 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" si="0"/>
-        <v>6417.576</v>
+        <v>320.87880000000001</v>
       </c>
       <c r="N22" s="2">
         <f>Sheet1!$D$2</f>
@@ -3484,7 +3499,7 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="1"/>
-        <v>3295.5120000000002</v>
+        <v>164.77560000000003</v>
       </c>
       <c r="P22" s="2">
         <f>Sheet1!$D$3</f>
@@ -3492,7 +3507,7 @@
       </c>
       <c r="Q22" s="2">
         <f t="shared" si="2"/>
-        <v>124882.56</v>
+        <v>6244.1280000000006</v>
       </c>
       <c r="R22" s="2">
         <f>Sheet1!$D$4</f>
@@ -3500,7 +3515,7 @@
       </c>
       <c r="S22" s="2">
         <f t="shared" si="3"/>
-        <v>74582.64</v>
+        <v>3729.1320000000001</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -3544,7 +3559,7 @@
       </c>
       <c r="M23" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N23" s="2">
         <f>Sheet1!$D$2</f>
@@ -3552,7 +3567,7 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P23" s="2">
         <f>Sheet1!$D$3</f>
@@ -3560,7 +3575,7 @@
       </c>
       <c r="Q23" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R23" s="2">
         <f>Sheet1!$D$4</f>
@@ -3568,7 +3583,7 @@
       </c>
       <c r="S23" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -3612,7 +3627,7 @@
       </c>
       <c r="M24" s="2">
         <f t="shared" si="0"/>
-        <v>291.70800000000003</v>
+        <v>14.585400000000002</v>
       </c>
       <c r="N24" s="2">
         <f>Sheet1!$D$2</f>
@@ -3620,7 +3635,7 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="1"/>
-        <v>149.79599999999999</v>
+        <v>7.4897999999999998</v>
       </c>
       <c r="P24" s="2">
         <f>Sheet1!$D$3</f>
@@ -3628,7 +3643,7 @@
       </c>
       <c r="Q24" s="2">
         <f t="shared" si="2"/>
-        <v>5676.48</v>
+        <v>283.82400000000001</v>
       </c>
       <c r="R24" s="2">
         <f>Sheet1!$D$4</f>
@@ -3636,7 +3651,7 @@
       </c>
       <c r="S24" s="2">
         <f t="shared" si="3"/>
-        <v>3390.12</v>
+        <v>169.506</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -3680,7 +3695,7 @@
       </c>
       <c r="M25" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N25" s="2">
         <f>Sheet1!$D$2</f>
@@ -3688,7 +3703,7 @@
       </c>
       <c r="O25" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P25" s="2">
         <f>Sheet1!$D$3</f>
@@ -3696,7 +3711,7 @@
       </c>
       <c r="Q25" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R25" s="2">
         <f>Sheet1!$D$4</f>
@@ -3704,7 +3719,7 @@
       </c>
       <c r="S25" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -3748,7 +3763,7 @@
       </c>
       <c r="M26" s="2">
         <f t="shared" si="0"/>
-        <v>2430.9</v>
+        <v>121.54500000000002</v>
       </c>
       <c r="N26" s="2">
         <f>Sheet1!$D$2</f>
@@ -3756,7 +3771,7 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="1"/>
-        <v>1248.3</v>
+        <v>62.414999999999999</v>
       </c>
       <c r="P26" s="2">
         <f>Sheet1!$D$3</f>
@@ -3764,7 +3779,7 @@
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="2"/>
-        <v>47304</v>
+        <v>2365.2000000000003</v>
       </c>
       <c r="R26" s="2">
         <f>Sheet1!$D$4</f>
@@ -3772,7 +3787,7 @@
       </c>
       <c r="S26" s="2">
         <f t="shared" si="3"/>
-        <v>28251</v>
+        <v>1412.5500000000002</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -3816,7 +3831,7 @@
       </c>
       <c r="M27" s="2">
         <f t="shared" si="0"/>
-        <v>810.3</v>
+        <v>40.515000000000001</v>
       </c>
       <c r="N27" s="2">
         <f>Sheet1!$D$2</f>
@@ -3824,7 +3839,7 @@
       </c>
       <c r="O27" s="2">
         <f t="shared" si="1"/>
-        <v>416.1</v>
+        <v>20.805000000000003</v>
       </c>
       <c r="P27" s="2">
         <f>Sheet1!$D$3</f>
@@ -3832,7 +3847,7 @@
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="2"/>
-        <v>15768</v>
+        <v>788.40000000000009</v>
       </c>
       <c r="R27" s="2">
         <f>Sheet1!$D$4</f>
@@ -3840,7 +3855,7 @@
       </c>
       <c r="S27" s="2">
         <f t="shared" si="3"/>
-        <v>9417</v>
+        <v>470.85</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -3884,7 +3899,7 @@
       </c>
       <c r="M28" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N28" s="2">
         <f>Sheet1!$D$2</f>
@@ -3892,7 +3907,7 @@
       </c>
       <c r="O28" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P28" s="2">
         <f>Sheet1!$D$3</f>
@@ -3900,7 +3915,7 @@
       </c>
       <c r="Q28" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R28" s="2">
         <f>Sheet1!$D$4</f>
@@ -3908,7 +3923,7 @@
       </c>
       <c r="S28" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -3952,7 +3967,7 @@
       </c>
       <c r="M29" s="2">
         <f t="shared" si="0"/>
-        <v>123.1656</v>
+        <v>6.1582800000000004</v>
       </c>
       <c r="N29" s="2">
         <f>Sheet1!$D$2</f>
@@ -3960,7 +3975,7 @@
       </c>
       <c r="O29" s="2">
         <f t="shared" si="1"/>
-        <v>63.247200000000007</v>
+        <v>3.1623600000000005</v>
       </c>
       <c r="P29" s="2">
         <f>Sheet1!$D$3</f>
@@ -3968,7 +3983,7 @@
       </c>
       <c r="Q29" s="2">
         <f t="shared" si="2"/>
-        <v>2396.7359999999999</v>
+        <v>119.8368</v>
       </c>
       <c r="R29" s="2">
         <f>Sheet1!$D$4</f>
@@ -3976,7 +3991,7 @@
       </c>
       <c r="S29" s="2">
         <f t="shared" si="3"/>
-        <v>1431.384</v>
+        <v>71.569200000000009</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -4020,7 +4035,7 @@
       </c>
       <c r="M30" s="2">
         <f t="shared" si="0"/>
-        <v>777.88800000000003</v>
+        <v>38.894400000000005</v>
       </c>
       <c r="N30" s="2">
         <f>Sheet1!$D$2</f>
@@ -4028,7 +4043,7 @@
       </c>
       <c r="O30" s="2">
         <f t="shared" si="1"/>
-        <v>399.45600000000002</v>
+        <v>19.972800000000003</v>
       </c>
       <c r="P30" s="2">
         <f>Sheet1!$D$3</f>
@@ -4036,7 +4051,7 @@
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="2"/>
-        <v>15137.28</v>
+        <v>756.86400000000003</v>
       </c>
       <c r="R30" s="2">
         <f>Sheet1!$D$4</f>
@@ -4044,7 +4059,7 @@
       </c>
       <c r="S30" s="2">
         <f t="shared" si="3"/>
-        <v>9040.32</v>
+        <v>452.01600000000002</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -4088,7 +4103,7 @@
       </c>
       <c r="M31" s="2">
         <f t="shared" si="0"/>
-        <v>1944.72</v>
+        <v>97.236000000000004</v>
       </c>
       <c r="N31" s="2">
         <f>Sheet1!$D$2</f>
@@ -4096,7 +4111,7 @@
       </c>
       <c r="O31" s="2">
         <f t="shared" si="1"/>
-        <v>998.64</v>
+        <v>49.932000000000002</v>
       </c>
       <c r="P31" s="2">
         <f>Sheet1!$D$3</f>
@@ -4104,7 +4119,7 @@
       </c>
       <c r="Q31" s="2">
         <f t="shared" si="2"/>
-        <v>37843.199999999997</v>
+        <v>1892.1599999999999</v>
       </c>
       <c r="R31" s="2">
         <f>Sheet1!$D$4</f>
@@ -4112,7 +4127,7 @@
       </c>
       <c r="S31" s="2">
         <f t="shared" si="3"/>
-        <v>22600.799999999999</v>
+        <v>1130.04</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -4156,7 +4171,7 @@
       </c>
       <c r="M32" s="2">
         <f t="shared" si="0"/>
-        <v>1782.66</v>
+        <v>89.13300000000001</v>
       </c>
       <c r="N32" s="2">
         <f>Sheet1!$D$2</f>
@@ -4164,7 +4179,7 @@
       </c>
       <c r="O32" s="2">
         <f t="shared" si="1"/>
-        <v>915.42</v>
+        <v>45.771000000000001</v>
       </c>
       <c r="P32" s="2">
         <f>Sheet1!$D$3</f>
@@ -4172,7 +4187,7 @@
       </c>
       <c r="Q32" s="2">
         <f t="shared" si="2"/>
-        <v>34689.599999999999</v>
+        <v>1734.48</v>
       </c>
       <c r="R32" s="2">
         <f>Sheet1!$D$4</f>
@@ -4180,7 +4195,7 @@
       </c>
       <c r="S32" s="2">
         <f t="shared" si="3"/>
-        <v>20717.400000000001</v>
+        <v>1035.8700000000001</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -4224,7 +4239,7 @@
       </c>
       <c r="M33" s="2">
         <f t="shared" si="0"/>
-        <v>388.94400000000002</v>
+        <v>19.447200000000002</v>
       </c>
       <c r="N33" s="2">
         <f>Sheet1!$D$2</f>
@@ -4232,7 +4247,7 @@
       </c>
       <c r="O33" s="2">
         <f t="shared" si="1"/>
-        <v>199.72800000000001</v>
+        <v>9.9864000000000015</v>
       </c>
       <c r="P33" s="2">
         <f>Sheet1!$D$3</f>
@@ -4240,7 +4255,7 @@
       </c>
       <c r="Q33" s="2">
         <f t="shared" si="2"/>
-        <v>7568.64</v>
+        <v>378.43200000000002</v>
       </c>
       <c r="R33" s="2">
         <f>Sheet1!$D$4</f>
@@ -4248,7 +4263,7 @@
       </c>
       <c r="S33" s="2">
         <f t="shared" si="3"/>
-        <v>4520.16</v>
+        <v>226.00800000000001</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -4292,7 +4307,7 @@
       </c>
       <c r="M34" s="2">
         <f t="shared" si="0"/>
-        <v>3241.2</v>
+        <v>162.06</v>
       </c>
       <c r="N34" s="2">
         <f>Sheet1!$D$2</f>
@@ -4300,7 +4315,7 @@
       </c>
       <c r="O34" s="2">
         <f t="shared" si="1"/>
-        <v>1664.4</v>
+        <v>83.220000000000013</v>
       </c>
       <c r="P34" s="2">
         <f>Sheet1!$D$3</f>
@@ -4308,7 +4323,7 @@
       </c>
       <c r="Q34" s="2">
         <f t="shared" si="2"/>
-        <v>63072</v>
+        <v>3153.6000000000004</v>
       </c>
       <c r="R34" s="2">
         <f>Sheet1!$D$4</f>
@@ -4316,7 +4331,7 @@
       </c>
       <c r="S34" s="2">
         <f t="shared" si="3"/>
-        <v>37668</v>
+        <v>1883.4</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -4360,7 +4375,7 @@
       </c>
       <c r="M35" s="2">
         <f t="shared" si="0"/>
-        <v>6806.52</v>
+        <v>340.32600000000002</v>
       </c>
       <c r="N35" s="2">
         <f>Sheet1!$D$2</f>
@@ -4368,7 +4383,7 @@
       </c>
       <c r="O35" s="2">
         <f t="shared" si="1"/>
-        <v>3495.24</v>
+        <v>174.762</v>
       </c>
       <c r="P35" s="2">
         <f>Sheet1!$D$3</f>
@@ -4376,7 +4391,7 @@
       </c>
       <c r="Q35" s="2">
         <f t="shared" si="2"/>
-        <v>132451.20000000001</v>
+        <v>6622.5600000000013</v>
       </c>
       <c r="R35" s="2">
         <f>Sheet1!$D$4</f>
@@ -4384,7 +4399,7 @@
       </c>
       <c r="S35" s="2">
         <f t="shared" si="3"/>
-        <v>79102.8</v>
+        <v>3955.1400000000003</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -4428,7 +4443,7 @@
       </c>
       <c r="M36" s="2">
         <f t="shared" si="0"/>
-        <v>5023.8599999999997</v>
+        <v>251.19299999999998</v>
       </c>
       <c r="N36" s="2">
         <f>Sheet1!$D$2</f>
@@ -4436,7 +4451,7 @@
       </c>
       <c r="O36" s="2">
         <f t="shared" si="1"/>
-        <v>2579.8200000000002</v>
+        <v>128.99100000000001</v>
       </c>
       <c r="P36" s="2">
         <f>Sheet1!$D$3</f>
@@ -4444,7 +4459,7 @@
       </c>
       <c r="Q36" s="2">
         <f t="shared" si="2"/>
-        <v>97761.600000000006</v>
+        <v>4888.0800000000008</v>
       </c>
       <c r="R36" s="2">
         <f>Sheet1!$D$4</f>
@@ -4452,7 +4467,7 @@
       </c>
       <c r="S36" s="2">
         <f t="shared" si="3"/>
-        <v>58385.4</v>
+        <v>2919.2700000000004</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -4496,7 +4511,7 @@
       </c>
       <c r="M37" s="2">
         <f t="shared" si="0"/>
-        <v>6417.576</v>
+        <v>320.87880000000001</v>
       </c>
       <c r="N37" s="2">
         <f>Sheet1!$D$2</f>
@@ -4504,7 +4519,7 @@
       </c>
       <c r="O37" s="2">
         <f t="shared" si="1"/>
-        <v>3295.5120000000002</v>
+        <v>164.77560000000003</v>
       </c>
       <c r="P37" s="2">
         <f>Sheet1!$D$3</f>
@@ -4512,7 +4527,7 @@
       </c>
       <c r="Q37" s="2">
         <f t="shared" si="2"/>
-        <v>124882.56</v>
+        <v>6244.1280000000006</v>
       </c>
       <c r="R37" s="2">
         <f>Sheet1!$D$4</f>
@@ -4520,7 +4535,7 @@
       </c>
       <c r="S37" s="2">
         <f t="shared" si="3"/>
-        <v>74582.64</v>
+        <v>3729.1320000000001</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -4564,7 +4579,7 @@
       </c>
       <c r="M38" s="2">
         <f t="shared" si="0"/>
-        <v>2981.904</v>
+        <v>149.09520000000001</v>
       </c>
       <c r="N38" s="2">
         <f>Sheet1!$D$2</f>
@@ -4572,7 +4587,7 @@
       </c>
       <c r="O38" s="2">
         <f t="shared" si="1"/>
-        <v>1531.248</v>
+        <v>76.562400000000011</v>
       </c>
       <c r="P38" s="2">
         <f>Sheet1!$D$3</f>
@@ -4580,7 +4595,7 @@
       </c>
       <c r="Q38" s="2">
         <f t="shared" si="2"/>
-        <v>58026.239999999998</v>
+        <v>2901.3119999999999</v>
       </c>
       <c r="R38" s="2">
         <f>Sheet1!$D$4</f>
@@ -4588,7 +4603,7 @@
       </c>
       <c r="S38" s="2">
         <f t="shared" si="3"/>
-        <v>34654.559999999998</v>
+        <v>1732.7280000000001</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -4632,7 +4647,7 @@
       </c>
       <c r="M39" s="2">
         <f t="shared" si="0"/>
-        <v>1458.54</v>
+        <v>72.927000000000007</v>
       </c>
       <c r="N39" s="2">
         <f>Sheet1!$D$2</f>
@@ -4640,7 +4655,7 @@
       </c>
       <c r="O39" s="2">
         <f t="shared" si="1"/>
-        <v>748.98</v>
+        <v>37.449000000000005</v>
       </c>
       <c r="P39" s="2">
         <f>Sheet1!$D$3</f>
@@ -4648,7 +4663,7 @@
       </c>
       <c r="Q39" s="2">
         <f t="shared" si="2"/>
-        <v>28382.400000000001</v>
+        <v>1419.1200000000001</v>
       </c>
       <c r="R39" s="2">
         <f>Sheet1!$D$4</f>
@@ -4656,7 +4671,7 @@
       </c>
       <c r="S39" s="2">
         <f t="shared" si="3"/>
-        <v>16950.599999999999</v>
+        <v>847.53</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -4700,7 +4715,7 @@
       </c>
       <c r="M40" s="2">
         <f t="shared" si="0"/>
-        <v>3889.44</v>
+        <v>194.47200000000001</v>
       </c>
       <c r="N40" s="2">
         <f>Sheet1!$D$2</f>
@@ -4708,7 +4723,7 @@
       </c>
       <c r="O40" s="2">
         <f t="shared" si="1"/>
-        <v>1997.28</v>
+        <v>99.864000000000004</v>
       </c>
       <c r="P40" s="2">
         <f>Sheet1!$D$3</f>
@@ -4716,7 +4731,7 @@
       </c>
       <c r="Q40" s="2">
         <f t="shared" si="2"/>
-        <v>75686.399999999994</v>
+        <v>3784.3199999999997</v>
       </c>
       <c r="R40" s="2">
         <f>Sheet1!$D$4</f>
@@ -4724,7 +4739,7 @@
       </c>
       <c r="S40" s="2">
         <f t="shared" si="3"/>
-        <v>45201.599999999999</v>
+        <v>2260.08</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -4768,7 +4783,7 @@
       </c>
       <c r="M41" s="2">
         <f t="shared" si="0"/>
-        <v>1458.54</v>
+        <v>72.927000000000007</v>
       </c>
       <c r="N41" s="2">
         <f>Sheet1!$D$2</f>
@@ -4776,7 +4791,7 @@
       </c>
       <c r="O41" s="2">
         <f t="shared" si="1"/>
-        <v>748.98</v>
+        <v>37.449000000000005</v>
       </c>
       <c r="P41" s="2">
         <f>Sheet1!$D$3</f>
@@ -4784,7 +4799,7 @@
       </c>
       <c r="Q41" s="2">
         <f t="shared" si="2"/>
-        <v>28382.400000000001</v>
+        <v>1419.1200000000001</v>
       </c>
       <c r="R41" s="2">
         <f>Sheet1!$D$4</f>
@@ -4792,7 +4807,7 @@
       </c>
       <c r="S41" s="2">
         <f t="shared" si="3"/>
-        <v>16950.599999999999</v>
+        <v>847.53</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -4836,7 +4851,7 @@
       </c>
       <c r="M42" s="2">
         <f t="shared" si="0"/>
-        <v>6255.5159999999996</v>
+        <v>312.7758</v>
       </c>
       <c r="N42" s="2">
         <f>Sheet1!$D$2</f>
@@ -4844,7 +4859,7 @@
       </c>
       <c r="O42" s="2">
         <f t="shared" si="1"/>
-        <v>3212.2919999999999</v>
+        <v>160.6146</v>
       </c>
       <c r="P42" s="2">
         <f>Sheet1!$D$3</f>
@@ -4852,7 +4867,7 @@
       </c>
       <c r="Q42" s="2">
         <f t="shared" si="2"/>
-        <v>121728.96000000001</v>
+        <v>6086.4480000000003</v>
       </c>
       <c r="R42" s="2">
         <f>Sheet1!$D$4</f>
@@ -4860,7 +4875,7 @@
       </c>
       <c r="S42" s="2">
         <f t="shared" si="3"/>
-        <v>72699.240000000005</v>
+        <v>3634.9620000000004</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -4904,7 +4919,7 @@
       </c>
       <c r="M43" s="2">
         <f t="shared" si="0"/>
-        <v>972.36</v>
+        <v>48.618000000000002</v>
       </c>
       <c r="N43" s="2">
         <f>Sheet1!$D$2</f>
@@ -4912,7 +4927,7 @@
       </c>
       <c r="O43" s="2">
         <f t="shared" si="1"/>
-        <v>499.32</v>
+        <v>24.966000000000001</v>
       </c>
       <c r="P43" s="2">
         <f>Sheet1!$D$3</f>
@@ -4920,7 +4935,7 @@
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="2"/>
-        <v>18921.599999999999</v>
+        <v>946.07999999999993</v>
       </c>
       <c r="R43" s="2">
         <f>Sheet1!$D$4</f>
@@ -4928,7 +4943,7 @@
       </c>
       <c r="S43" s="2">
         <f t="shared" si="3"/>
-        <v>11300.4</v>
+        <v>565.02</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -4972,7 +4987,7 @@
       </c>
       <c r="M44" s="2">
         <f t="shared" si="0"/>
-        <v>4861.8</v>
+        <v>243.09000000000003</v>
       </c>
       <c r="N44" s="2">
         <f>Sheet1!$D$2</f>
@@ -4980,7 +4995,7 @@
       </c>
       <c r="O44" s="2">
         <f t="shared" si="1"/>
-        <v>2496.6</v>
+        <v>124.83</v>
       </c>
       <c r="P44" s="2">
         <f>Sheet1!$D$3</f>
@@ -4988,7 +5003,7 @@
       </c>
       <c r="Q44" s="2">
         <f t="shared" si="2"/>
-        <v>94608</v>
+        <v>4730.4000000000005</v>
       </c>
       <c r="R44" s="2">
         <f>Sheet1!$D$4</f>
@@ -4996,7 +5011,7 @@
       </c>
       <c r="S44" s="2">
         <f t="shared" si="3"/>
-        <v>56502</v>
+        <v>2825.1000000000004</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -5040,7 +5055,7 @@
       </c>
       <c r="M45" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N45" s="2">
         <f>Sheet1!$D$2</f>
@@ -5048,7 +5063,7 @@
       </c>
       <c r="O45" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P45" s="2">
         <f>Sheet1!$D$3</f>
@@ -5056,7 +5071,7 @@
       </c>
       <c r="Q45" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R45" s="2">
         <f>Sheet1!$D$4</f>
@@ -5064,7 +5079,7 @@
       </c>
       <c r="S45" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -5108,7 +5123,7 @@
       </c>
       <c r="M46" s="2">
         <f t="shared" si="0"/>
-        <v>7584.4080000000004</v>
+        <v>379.22040000000004</v>
       </c>
       <c r="N46" s="2">
         <f>Sheet1!$D$2</f>
@@ -5116,7 +5131,7 @@
       </c>
       <c r="O46" s="2">
         <f t="shared" si="1"/>
-        <v>3894.6959999999999</v>
+        <v>194.73480000000001</v>
       </c>
       <c r="P46" s="2">
         <f>Sheet1!$D$3</f>
@@ -5124,7 +5139,7 @@
       </c>
       <c r="Q46" s="2">
         <f t="shared" si="2"/>
-        <v>147588.48000000001</v>
+        <v>7379.4240000000009</v>
       </c>
       <c r="R46" s="2">
         <f>Sheet1!$D$4</f>
@@ -5132,7 +5147,7 @@
       </c>
       <c r="S46" s="2">
         <f t="shared" si="3"/>
-        <v>88143.12</v>
+        <v>4407.1559999999999</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -5176,7 +5191,7 @@
       </c>
       <c r="M47" s="2">
         <f t="shared" si="0"/>
-        <v>162.06</v>
+        <v>8.1029999999999998</v>
       </c>
       <c r="N47" s="2">
         <f>Sheet1!$D$2</f>
@@ -5184,7 +5199,7 @@
       </c>
       <c r="O47" s="2">
         <f t="shared" si="1"/>
-        <v>83.22</v>
+        <v>4.1610000000000005</v>
       </c>
       <c r="P47" s="2">
         <f>Sheet1!$D$3</f>
@@ -5192,7 +5207,7 @@
       </c>
       <c r="Q47" s="2">
         <f t="shared" si="2"/>
-        <v>3153.6</v>
+        <v>157.68</v>
       </c>
       <c r="R47" s="2">
         <f>Sheet1!$D$4</f>
@@ -5200,7 +5215,7 @@
       </c>
       <c r="S47" s="2">
         <f t="shared" si="3"/>
-        <v>1883.4</v>
+        <v>94.170000000000016</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -5244,7 +5259,7 @@
       </c>
       <c r="M48" s="2">
         <f t="shared" si="0"/>
-        <v>5185.92</v>
+        <v>259.29599999999999</v>
       </c>
       <c r="N48" s="2">
         <f>Sheet1!$D$2</f>
@@ -5252,7 +5267,7 @@
       </c>
       <c r="O48" s="2">
         <f t="shared" si="1"/>
-        <v>2663.04</v>
+        <v>133.15200000000002</v>
       </c>
       <c r="P48" s="2">
         <f>Sheet1!$D$3</f>
@@ -5260,7 +5275,7 @@
       </c>
       <c r="Q48" s="2">
         <f t="shared" si="2"/>
-        <v>100915.2</v>
+        <v>5045.76</v>
       </c>
       <c r="R48" s="2">
         <f>Sheet1!$D$4</f>
@@ -5268,7 +5283,7 @@
       </c>
       <c r="S48" s="2">
         <f t="shared" si="3"/>
-        <v>60268.800000000003</v>
+        <v>3013.4400000000005</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -5312,7 +5327,7 @@
       </c>
       <c r="M49" s="2">
         <f t="shared" si="0"/>
-        <v>291.70800000000003</v>
+        <v>14.585400000000002</v>
       </c>
       <c r="N49" s="2">
         <f>Sheet1!$D$2</f>
@@ -5320,7 +5335,7 @@
       </c>
       <c r="O49" s="2">
         <f t="shared" si="1"/>
-        <v>149.79599999999999</v>
+        <v>7.4897999999999998</v>
       </c>
       <c r="P49" s="2">
         <f>Sheet1!$D$3</f>
@@ -5328,7 +5343,7 @@
       </c>
       <c r="Q49" s="2">
         <f t="shared" si="2"/>
-        <v>5676.48</v>
+        <v>283.82400000000001</v>
       </c>
       <c r="R49" s="2">
         <f>Sheet1!$D$4</f>
@@ -5336,7 +5351,7 @@
       </c>
       <c r="S49" s="2">
         <f t="shared" si="3"/>
-        <v>3390.12</v>
+        <v>169.506</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -5380,7 +5395,7 @@
       </c>
       <c r="M50" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N50" s="2">
         <f>Sheet1!$D$2</f>
@@ -5388,7 +5403,7 @@
       </c>
       <c r="O50" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P50" s="2">
         <f>Sheet1!$D$3</f>
@@ -5396,7 +5411,7 @@
       </c>
       <c r="Q50" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R50" s="2">
         <f>Sheet1!$D$4</f>
@@ -5404,7 +5419,7 @@
       </c>
       <c r="S50" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -5448,7 +5463,7 @@
       </c>
       <c r="M51" s="2">
         <f t="shared" si="0"/>
-        <v>4083.9119999999998</v>
+        <v>204.19560000000001</v>
       </c>
       <c r="N51" s="2">
         <f>Sheet1!$D$2</f>
@@ -5456,7 +5471,7 @@
       </c>
       <c r="O51" s="2">
         <f t="shared" si="1"/>
-        <v>2097.1439999999998</v>
+        <v>104.85719999999999</v>
       </c>
       <c r="P51" s="2">
         <f>Sheet1!$D$3</f>
@@ -5464,7 +5479,7 @@
       </c>
       <c r="Q51" s="2">
         <f t="shared" si="2"/>
-        <v>79470.720000000001</v>
+        <v>3973.5360000000001</v>
       </c>
       <c r="R51" s="2">
         <f>Sheet1!$D$4</f>
@@ -5472,7 +5487,7 @@
       </c>
       <c r="S51" s="2">
         <f t="shared" si="3"/>
-        <v>47461.68</v>
+        <v>2373.0840000000003</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -5516,7 +5531,7 @@
       </c>
       <c r="M52" s="2">
         <f t="shared" si="0"/>
-        <v>291.70800000000003</v>
+        <v>14.585400000000002</v>
       </c>
       <c r="N52" s="2">
         <f>Sheet1!$D$2</f>
@@ -5524,7 +5539,7 @@
       </c>
       <c r="O52" s="2">
         <f t="shared" si="1"/>
-        <v>149.79599999999999</v>
+        <v>7.4897999999999998</v>
       </c>
       <c r="P52" s="2">
         <f>Sheet1!$D$3</f>
@@ -5532,7 +5547,7 @@
       </c>
       <c r="Q52" s="2">
         <f t="shared" si="2"/>
-        <v>5676.48</v>
+        <v>283.82400000000001</v>
       </c>
       <c r="R52" s="2">
         <f>Sheet1!$D$4</f>
@@ -5540,7 +5555,7 @@
       </c>
       <c r="S52" s="2">
         <f t="shared" si="3"/>
-        <v>3390.12</v>
+        <v>169.506</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -5584,7 +5599,7 @@
       </c>
       <c r="M53" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N53" s="2">
         <f>Sheet1!$D$2</f>
@@ -5592,7 +5607,7 @@
       </c>
       <c r="O53" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P53" s="2">
         <f>Sheet1!$D$3</f>
@@ -5600,7 +5615,7 @@
       </c>
       <c r="Q53" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R53" s="2">
         <f>Sheet1!$D$4</f>
@@ -5608,7 +5623,7 @@
       </c>
       <c r="S53" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -5652,7 +5667,7 @@
       </c>
       <c r="M54" s="2">
         <f t="shared" si="0"/>
-        <v>291.70800000000003</v>
+        <v>14.585400000000002</v>
       </c>
       <c r="N54" s="2">
         <f>Sheet1!$D$2</f>
@@ -5660,7 +5675,7 @@
       </c>
       <c r="O54" s="2">
         <f t="shared" si="1"/>
-        <v>149.79599999999999</v>
+        <v>7.4897999999999998</v>
       </c>
       <c r="P54" s="2">
         <f>Sheet1!$D$3</f>
@@ -5668,7 +5683,7 @@
       </c>
       <c r="Q54" s="2">
         <f t="shared" si="2"/>
-        <v>5676.48</v>
+        <v>283.82400000000001</v>
       </c>
       <c r="R54" s="2">
         <f>Sheet1!$D$4</f>
@@ -5676,7 +5691,7 @@
       </c>
       <c r="S54" s="2">
         <f t="shared" si="3"/>
-        <v>3390.12</v>
+        <v>169.506</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -5720,7 +5735,7 @@
       </c>
       <c r="M55" s="2">
         <f t="shared" si="0"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N55" s="2">
         <f>Sheet1!$D$2</f>
@@ -5728,7 +5743,7 @@
       </c>
       <c r="O55" s="2">
         <f t="shared" si="1"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P55" s="2">
         <f>Sheet1!$D$3</f>
@@ -5736,7 +5751,7 @@
       </c>
       <c r="Q55" s="2">
         <f t="shared" si="2"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R55" s="2">
         <f>Sheet1!$D$4</f>
@@ -5744,7 +5759,7 @@
       </c>
       <c r="S55" s="2">
         <f t="shared" si="3"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -5788,7 +5803,7 @@
       </c>
       <c r="M56" s="2">
         <f t="shared" si="0"/>
-        <v>7584.4080000000004</v>
+        <v>379.22040000000004</v>
       </c>
       <c r="N56" s="2">
         <f>Sheet1!$D$2</f>
@@ -5796,7 +5811,7 @@
       </c>
       <c r="O56" s="2">
         <f t="shared" si="1"/>
-        <v>3894.6959999999999</v>
+        <v>194.73480000000001</v>
       </c>
       <c r="P56" s="2">
         <f>Sheet1!$D$3</f>
@@ -5804,7 +5819,7 @@
       </c>
       <c r="Q56" s="2">
         <f t="shared" si="2"/>
-        <v>147588.48000000001</v>
+        <v>7379.4240000000009</v>
       </c>
       <c r="R56" s="2">
         <f>Sheet1!$D$4</f>
@@ -5812,7 +5827,7 @@
       </c>
       <c r="S56" s="2">
         <f t="shared" si="3"/>
-        <v>88143.12</v>
+        <v>4407.1559999999999</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -5856,7 +5871,7 @@
       </c>
       <c r="M57" s="2">
         <f t="shared" si="0"/>
-        <v>1977.1320000000001</v>
+        <v>98.856600000000014</v>
       </c>
       <c r="N57" s="2">
         <f>Sheet1!$D$2</f>
@@ -5864,7 +5879,7 @@
       </c>
       <c r="O57" s="2">
         <f t="shared" si="1"/>
-        <v>1015.284</v>
+        <v>50.764200000000002</v>
       </c>
       <c r="P57" s="2">
         <f>Sheet1!$D$3</f>
@@ -5872,7 +5887,7 @@
       </c>
       <c r="Q57" s="2">
         <f t="shared" si="2"/>
-        <v>38473.919999999998</v>
+        <v>1923.6959999999999</v>
       </c>
       <c r="R57" s="2">
         <f>Sheet1!$D$4</f>
@@ -5880,7 +5895,7 @@
       </c>
       <c r="S57" s="2">
         <f t="shared" si="3"/>
-        <v>22977.48</v>
+        <v>1148.874</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -5924,7 +5939,7 @@
       </c>
       <c r="M58" s="2">
         <f t="shared" si="0"/>
-        <v>6417.576</v>
+        <v>320.87880000000001</v>
       </c>
       <c r="N58" s="2">
         <f>Sheet1!$D$2</f>
@@ -5932,7 +5947,7 @@
       </c>
       <c r="O58" s="2">
         <f t="shared" si="1"/>
-        <v>3295.5120000000002</v>
+        <v>164.77560000000003</v>
       </c>
       <c r="P58" s="2">
         <f>Sheet1!$D$3</f>
@@ -5940,7 +5955,7 @@
       </c>
       <c r="Q58" s="2">
         <f t="shared" si="2"/>
-        <v>124882.56</v>
+        <v>6244.1280000000006</v>
       </c>
       <c r="R58" s="2">
         <f>Sheet1!$D$4</f>
@@ -5948,7 +5963,7 @@
       </c>
       <c r="S58" s="2">
         <f t="shared" si="3"/>
-        <v>74582.64</v>
+        <v>3729.1320000000001</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -5992,7 +6007,7 @@
       </c>
       <c r="M59" s="2">
         <f t="shared" si="0"/>
-        <v>3241.2</v>
+        <v>162.06</v>
       </c>
       <c r="N59" s="2">
         <f>Sheet1!$D$2</f>
@@ -6000,7 +6015,7 @@
       </c>
       <c r="O59" s="2">
         <f t="shared" si="1"/>
-        <v>1664.4</v>
+        <v>83.220000000000013</v>
       </c>
       <c r="P59" s="2">
         <f>Sheet1!$D$3</f>
@@ -6008,7 +6023,7 @@
       </c>
       <c r="Q59" s="2">
         <f t="shared" si="2"/>
-        <v>63072</v>
+        <v>3153.6000000000004</v>
       </c>
       <c r="R59" s="2">
         <f>Sheet1!$D$4</f>
@@ -6016,7 +6031,7 @@
       </c>
       <c r="S59" s="2">
         <f t="shared" si="3"/>
-        <v>37668</v>
+        <v>1883.4</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -6060,7 +6075,7 @@
       </c>
       <c r="M60" s="2">
         <f t="shared" si="0"/>
-        <v>5898.9840000000004</v>
+        <v>294.94920000000002</v>
       </c>
       <c r="N60" s="2">
         <f>Sheet1!$D$2</f>
@@ -6068,7 +6083,7 @@
       </c>
       <c r="O60" s="2">
         <f t="shared" si="1"/>
-        <v>3029.2080000000001</v>
+        <v>151.46040000000002</v>
       </c>
       <c r="P60" s="2">
         <f>Sheet1!$D$3</f>
@@ -6076,7 +6091,7 @@
       </c>
       <c r="Q60" s="2">
         <f t="shared" si="2"/>
-        <v>114791.03999999999</v>
+        <v>5739.5519999999997</v>
       </c>
       <c r="R60" s="2">
         <f>Sheet1!$D$4</f>
@@ -6084,7 +6099,7 @@
       </c>
       <c r="S60" s="2">
         <f t="shared" si="3"/>
-        <v>68555.759999999995</v>
+        <v>3427.788</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -6128,7 +6143,7 @@
       </c>
       <c r="M61" s="2">
         <f t="shared" si="0"/>
-        <v>7519.5839999999998</v>
+        <v>375.97919999999999</v>
       </c>
       <c r="N61" s="2">
         <f>Sheet1!$D$2</f>
@@ -6136,7 +6151,7 @@
       </c>
       <c r="O61" s="2">
         <f t="shared" si="1"/>
-        <v>3861.4079999999999</v>
+        <v>193.07040000000001</v>
       </c>
       <c r="P61" s="2">
         <f>Sheet1!$D$3</f>
@@ -6144,7 +6159,7 @@
       </c>
       <c r="Q61" s="2">
         <f t="shared" si="2"/>
-        <v>146327.04000000001</v>
+        <v>7316.3520000000008</v>
       </c>
       <c r="R61" s="2">
         <f>Sheet1!$D$4</f>
@@ -6152,7 +6167,7 @@
       </c>
       <c r="S61" s="2">
         <f t="shared" si="3"/>
-        <v>87389.759999999995</v>
+        <v>4369.4880000000003</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -6196,7 +6211,7 @@
       </c>
       <c r="M62" s="2">
         <f t="shared" si="0"/>
-        <v>4408.0320000000002</v>
+        <v>220.40160000000003</v>
       </c>
       <c r="N62" s="2">
         <f>Sheet1!$D$2</f>
@@ -6204,7 +6219,7 @@
       </c>
       <c r="O62" s="2">
         <f t="shared" si="1"/>
-        <v>2263.5839999999998</v>
+        <v>113.17919999999999</v>
       </c>
       <c r="P62" s="2">
         <f>Sheet1!$D$3</f>
@@ -6212,7 +6227,7 @@
       </c>
       <c r="Q62" s="2">
         <f t="shared" si="2"/>
-        <v>85777.919999999998</v>
+        <v>4288.8959999999997</v>
       </c>
       <c r="R62" s="2">
         <f>Sheet1!$D$4</f>
@@ -6220,7 +6235,7 @@
       </c>
       <c r="S62" s="2">
         <f t="shared" si="3"/>
-        <v>51228.480000000003</v>
+        <v>2561.4240000000004</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -6264,7 +6279,7 @@
       </c>
       <c r="M63" s="2">
         <f t="shared" si="0"/>
-        <v>2819.8440000000001</v>
+        <v>140.9922</v>
       </c>
       <c r="N63" s="2">
         <f>Sheet1!$D$2</f>
@@ -6272,7 +6287,7 @@
       </c>
       <c r="O63" s="2">
         <f t="shared" si="1"/>
-        <v>1448.028</v>
+        <v>72.40140000000001</v>
       </c>
       <c r="P63" s="2">
         <f>Sheet1!$D$3</f>
@@ -6280,7 +6295,7 @@
       </c>
       <c r="Q63" s="2">
         <f t="shared" si="2"/>
-        <v>54872.639999999999</v>
+        <v>2743.6320000000001</v>
       </c>
       <c r="R63" s="2">
         <f>Sheet1!$D$4</f>
@@ -6288,7 +6303,7 @@
       </c>
       <c r="S63" s="2">
         <f t="shared" si="3"/>
-        <v>32771.160000000003</v>
+        <v>1638.5580000000002</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -6332,7 +6347,7 @@
       </c>
       <c r="M64" s="2">
         <f t="shared" si="0"/>
-        <v>437.56200000000001</v>
+        <v>21.878100000000003</v>
       </c>
       <c r="N64" s="2">
         <f>Sheet1!$D$2</f>
@@ -6340,7 +6355,7 @@
       </c>
       <c r="O64" s="2">
         <f t="shared" si="1"/>
-        <v>224.69399999999999</v>
+        <v>11.2347</v>
       </c>
       <c r="P64" s="2">
         <f>Sheet1!$D$3</f>
@@ -6348,7 +6363,7 @@
       </c>
       <c r="Q64" s="2">
         <f t="shared" si="2"/>
-        <v>8514.7199999999993</v>
+        <v>425.73599999999999</v>
       </c>
       <c r="R64" s="2">
         <f>Sheet1!$D$4</f>
@@ -6356,7 +6371,7 @@
       </c>
       <c r="S64" s="2">
         <f t="shared" si="3"/>
-        <v>5085.18</v>
+        <v>254.25900000000001</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -6400,7 +6415,7 @@
       </c>
       <c r="M65" s="2">
         <f t="shared" si="0"/>
-        <v>3889.44</v>
+        <v>194.47200000000001</v>
       </c>
       <c r="N65" s="2">
         <f>Sheet1!$D$2</f>
@@ -6408,7 +6423,7 @@
       </c>
       <c r="O65" s="2">
         <f t="shared" si="1"/>
-        <v>1997.28</v>
+        <v>99.864000000000004</v>
       </c>
       <c r="P65" s="2">
         <f>Sheet1!$D$3</f>
@@ -6416,7 +6431,7 @@
       </c>
       <c r="Q65" s="2">
         <f t="shared" si="2"/>
-        <v>75686.399999999994</v>
+        <v>3784.3199999999997</v>
       </c>
       <c r="R65" s="2">
         <f>Sheet1!$D$4</f>
@@ -6424,7 +6439,7 @@
       </c>
       <c r="S65" s="2">
         <f t="shared" si="3"/>
-        <v>45201.599999999999</v>
+        <v>2260.08</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -6468,7 +6483,7 @@
       </c>
       <c r="M66" s="2">
         <f t="shared" si="0"/>
-        <v>4537.68</v>
+        <v>226.88400000000001</v>
       </c>
       <c r="N66" s="2">
         <f>Sheet1!$D$2</f>
@@ -6476,7 +6491,7 @@
       </c>
       <c r="O66" s="2">
         <f t="shared" si="1"/>
-        <v>2330.16</v>
+        <v>116.508</v>
       </c>
       <c r="P66" s="2">
         <f>Sheet1!$D$3</f>
@@ -6484,7 +6499,7 @@
       </c>
       <c r="Q66" s="2">
         <f t="shared" si="2"/>
-        <v>88300.800000000003</v>
+        <v>4415.04</v>
       </c>
       <c r="R66" s="2">
         <f>Sheet1!$D$4</f>
@@ -6492,7 +6507,7 @@
       </c>
       <c r="S66" s="2">
         <f t="shared" si="3"/>
-        <v>52735.199999999997</v>
+        <v>2636.76</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
@@ -6535,32 +6550,32 @@
         <v>3.6999999999999999E-4</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" ref="M67:M111" si="4">(K67*L67)/1000</f>
-        <v>2352.1388400000001</v>
+        <f t="shared" ref="M67:M111" si="4">((K67*L67)/1000)*0.05</f>
+        <v>117.606942</v>
       </c>
       <c r="N67" s="2">
         <f>Sheet1!$D$2</f>
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" ref="O67:O111" si="5">(K67*N67)/1000</f>
-        <v>1207.85508</v>
+        <f t="shared" ref="O67:O111" si="5">((K67*N67)/1000)*0.05</f>
+        <v>60.392754000000004</v>
       </c>
       <c r="P67" s="2">
         <f>Sheet1!$D$3</f>
         <v>7.1999999999999998E-3</v>
       </c>
       <c r="Q67" s="2">
-        <f t="shared" ref="Q67:Q111" si="6">(K67*P67)/1000</f>
-        <v>45771.350399999996</v>
+        <f t="shared" ref="Q67:Q111" si="6">((K67*P67)/1000)*0.05</f>
+        <v>2288.5675200000001</v>
       </c>
       <c r="R67" s="2">
         <f>Sheet1!$D$4</f>
         <v>4.3E-3</v>
       </c>
       <c r="S67" s="2">
-        <f t="shared" ref="S67:S111" si="7">(R67*K67)/1000</f>
-        <v>27335.667600000001</v>
+        <f t="shared" ref="S67:S111" si="7">((R67*K67)/1000*0.05)</f>
+        <v>1366.7833800000001</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -6604,7 +6619,7 @@
       </c>
       <c r="M68" s="2">
         <f t="shared" si="4"/>
-        <v>9723.6</v>
+        <v>486.18000000000006</v>
       </c>
       <c r="N68" s="2">
         <f>Sheet1!$D$2</f>
@@ -6612,7 +6627,7 @@
       </c>
       <c r="O68" s="2">
         <f t="shared" si="5"/>
-        <v>4993.2</v>
+        <v>249.66</v>
       </c>
       <c r="P68" s="2">
         <f>Sheet1!$D$3</f>
@@ -6620,7 +6635,7 @@
       </c>
       <c r="Q68" s="2">
         <f t="shared" si="6"/>
-        <v>189216</v>
+        <v>9460.8000000000011</v>
       </c>
       <c r="R68" s="2">
         <f>Sheet1!$D$4</f>
@@ -6628,7 +6643,7 @@
       </c>
       <c r="S68" s="2">
         <f t="shared" si="7"/>
-        <v>113004</v>
+        <v>5650.2000000000007</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -6672,7 +6687,7 @@
       </c>
       <c r="M69" s="2">
         <f t="shared" si="4"/>
-        <v>3889.44</v>
+        <v>194.47200000000001</v>
       </c>
       <c r="N69" s="2">
         <f>Sheet1!$D$2</f>
@@ -6680,7 +6695,7 @@
       </c>
       <c r="O69" s="2">
         <f t="shared" si="5"/>
-        <v>1997.28</v>
+        <v>99.864000000000004</v>
       </c>
       <c r="P69" s="2">
         <f>Sheet1!$D$3</f>
@@ -6688,7 +6703,7 @@
       </c>
       <c r="Q69" s="2">
         <f t="shared" si="6"/>
-        <v>75686.399999999994</v>
+        <v>3784.3199999999997</v>
       </c>
       <c r="R69" s="2">
         <f>Sheet1!$D$4</f>
@@ -6696,7 +6711,7 @@
       </c>
       <c r="S69" s="2">
         <f t="shared" si="7"/>
-        <v>45201.599999999999</v>
+        <v>2260.08</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -6740,7 +6755,7 @@
       </c>
       <c r="M70" s="2">
         <f t="shared" si="4"/>
-        <v>7325.1120000000001</v>
+        <v>366.25560000000002</v>
       </c>
       <c r="N70" s="2">
         <f>Sheet1!$D$2</f>
@@ -6748,7 +6763,7 @@
       </c>
       <c r="O70" s="2">
         <f t="shared" si="5"/>
-        <v>3761.5439999999999</v>
+        <v>188.0772</v>
       </c>
       <c r="P70" s="2">
         <f>Sheet1!$D$3</f>
@@ -6756,7 +6771,7 @@
       </c>
       <c r="Q70" s="2">
         <f t="shared" si="6"/>
-        <v>142542.72</v>
+        <v>7127.1360000000004</v>
       </c>
       <c r="R70" s="2">
         <f>Sheet1!$D$4</f>
@@ -6764,7 +6779,7 @@
       </c>
       <c r="S70" s="2">
         <f t="shared" si="7"/>
-        <v>85129.68</v>
+        <v>4256.4839999999995</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -6808,7 +6823,7 @@
       </c>
       <c r="M71" s="2">
         <f t="shared" si="4"/>
-        <v>11668.32</v>
+        <v>583.41600000000005</v>
       </c>
       <c r="N71" s="2">
         <f>Sheet1!$D$2</f>
@@ -6816,7 +6831,7 @@
       </c>
       <c r="O71" s="2">
         <f t="shared" si="5"/>
-        <v>5991.84</v>
+        <v>299.59200000000004</v>
       </c>
       <c r="P71" s="2">
         <f>Sheet1!$D$3</f>
@@ -6824,7 +6839,7 @@
       </c>
       <c r="Q71" s="2">
         <f t="shared" si="6"/>
-        <v>227059.20000000001</v>
+        <v>11352.960000000001</v>
       </c>
       <c r="R71" s="2">
         <f>Sheet1!$D$4</f>
@@ -6832,7 +6847,7 @@
       </c>
       <c r="S71" s="2">
         <f t="shared" si="7"/>
-        <v>135604.79999999999</v>
+        <v>6780.24</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
@@ -6876,7 +6891,7 @@
       </c>
       <c r="M72" s="2">
         <f t="shared" si="4"/>
-        <v>437.56200000000001</v>
+        <v>21.878100000000003</v>
       </c>
       <c r="N72" s="2">
         <f>Sheet1!$D$2</f>
@@ -6884,7 +6899,7 @@
       </c>
       <c r="O72" s="2">
         <f t="shared" si="5"/>
-        <v>224.69399999999999</v>
+        <v>11.2347</v>
       </c>
       <c r="P72" s="2">
         <f>Sheet1!$D$3</f>
@@ -6892,7 +6907,7 @@
       </c>
       <c r="Q72" s="2">
         <f t="shared" si="6"/>
-        <v>8514.7199999999993</v>
+        <v>425.73599999999999</v>
       </c>
       <c r="R72" s="2">
         <f>Sheet1!$D$4</f>
@@ -6900,7 +6915,7 @@
       </c>
       <c r="S72" s="2">
         <f t="shared" si="7"/>
-        <v>5085.18</v>
+        <v>254.25900000000001</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -6944,7 +6959,7 @@
       </c>
       <c r="M73" s="2">
         <f t="shared" si="4"/>
-        <v>9140.1839999999993</v>
+        <v>457.00919999999996</v>
       </c>
       <c r="N73" s="2">
         <f>Sheet1!$D$2</f>
@@ -6952,7 +6967,7 @@
       </c>
       <c r="O73" s="2">
         <f t="shared" si="5"/>
-        <v>4693.6080000000002</v>
+        <v>234.68040000000002</v>
       </c>
       <c r="P73" s="2">
         <f>Sheet1!$D$3</f>
@@ -6960,7 +6975,7 @@
       </c>
       <c r="Q73" s="2">
         <f t="shared" si="6"/>
-        <v>177863.04000000001</v>
+        <v>8893.152</v>
       </c>
       <c r="R73" s="2">
         <f>Sheet1!$D$4</f>
@@ -6968,7 +6983,7 @@
       </c>
       <c r="S73" s="2">
         <f t="shared" si="7"/>
-        <v>106223.76</v>
+        <v>5311.1880000000001</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -7012,7 +7027,7 @@
       </c>
       <c r="M74" s="2">
         <f t="shared" si="4"/>
-        <v>6417.576</v>
+        <v>320.87880000000001</v>
       </c>
       <c r="N74" s="2">
         <f>Sheet1!$D$2</f>
@@ -7020,7 +7035,7 @@
       </c>
       <c r="O74" s="2">
         <f t="shared" si="5"/>
-        <v>3295.5120000000002</v>
+        <v>164.77560000000003</v>
       </c>
       <c r="P74" s="2">
         <f>Sheet1!$D$3</f>
@@ -7028,7 +7043,7 @@
       </c>
       <c r="Q74" s="2">
         <f t="shared" si="6"/>
-        <v>124882.56</v>
+        <v>6244.1280000000006</v>
       </c>
       <c r="R74" s="2">
         <f>Sheet1!$D$4</f>
@@ -7036,7 +7051,7 @@
       </c>
       <c r="S74" s="2">
         <f t="shared" si="7"/>
-        <v>74582.64</v>
+        <v>3729.1320000000001</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -7080,7 +7095,7 @@
       </c>
       <c r="M75" s="2">
         <f t="shared" si="4"/>
-        <v>5704.5119999999997</v>
+        <v>285.22559999999999</v>
       </c>
       <c r="N75" s="2">
         <f>Sheet1!$D$2</f>
@@ -7088,7 +7103,7 @@
       </c>
       <c r="O75" s="2">
         <f t="shared" si="5"/>
-        <v>2929.3440000000001</v>
+        <v>146.46720000000002</v>
       </c>
       <c r="P75" s="2">
         <f>Sheet1!$D$3</f>
@@ -7096,7 +7111,7 @@
       </c>
       <c r="Q75" s="2">
         <f t="shared" si="6"/>
-        <v>111006.72</v>
+        <v>5550.3360000000002</v>
       </c>
       <c r="R75" s="2">
         <f>Sheet1!$D$4</f>
@@ -7104,7 +7119,7 @@
       </c>
       <c r="S75" s="2">
         <f t="shared" si="7"/>
-        <v>66295.679999999993</v>
+        <v>3314.7839999999997</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -7148,7 +7163,7 @@
       </c>
       <c r="M76" s="2">
         <f t="shared" si="4"/>
-        <v>3082.3812000000003</v>
+        <v>154.11906000000002</v>
       </c>
       <c r="N76" s="2">
         <f>Sheet1!$D$2</f>
@@ -7156,7 +7171,7 @@
       </c>
       <c r="O76" s="2">
         <f t="shared" si="5"/>
-        <v>1582.8444000000002</v>
+        <v>79.142220000000009</v>
       </c>
       <c r="P76" s="2">
         <f>Sheet1!$D$3</f>
@@ -7164,7 +7179,7 @@
       </c>
       <c r="Q76" s="2">
         <f t="shared" si="6"/>
-        <v>59981.472000000002</v>
+        <v>2999.0736000000002</v>
       </c>
       <c r="R76" s="2">
         <f>Sheet1!$D$4</f>
@@ -7172,7 +7187,7 @@
       </c>
       <c r="S76" s="2">
         <f t="shared" si="7"/>
-        <v>35822.267999999996</v>
+        <v>1791.1134</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -7216,7 +7231,7 @@
       </c>
       <c r="M77" s="2">
         <f t="shared" si="4"/>
-        <v>777.88800000000003</v>
+        <v>38.894400000000005</v>
       </c>
       <c r="N77" s="2">
         <f>Sheet1!$D$2</f>
@@ -7224,7 +7239,7 @@
       </c>
       <c r="O77" s="2">
         <f t="shared" si="5"/>
-        <v>399.45600000000002</v>
+        <v>19.972800000000003</v>
       </c>
       <c r="P77" s="2">
         <f>Sheet1!$D$3</f>
@@ -7232,7 +7247,7 @@
       </c>
       <c r="Q77" s="2">
         <f t="shared" si="6"/>
-        <v>15137.28</v>
+        <v>756.86400000000003</v>
       </c>
       <c r="R77" s="2">
         <f>Sheet1!$D$4</f>
@@ -7240,7 +7255,7 @@
       </c>
       <c r="S77" s="2">
         <f t="shared" si="7"/>
-        <v>9040.32</v>
+        <v>452.01600000000002</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -7284,7 +7299,7 @@
       </c>
       <c r="M78" s="2">
         <f t="shared" si="4"/>
-        <v>291.70800000000003</v>
+        <v>14.585400000000002</v>
       </c>
       <c r="N78" s="2">
         <f>Sheet1!$D$2</f>
@@ -7292,7 +7307,7 @@
       </c>
       <c r="O78" s="2">
         <f t="shared" si="5"/>
-        <v>149.79599999999999</v>
+        <v>7.4897999999999998</v>
       </c>
       <c r="P78" s="2">
         <f>Sheet1!$D$3</f>
@@ -7300,7 +7315,7 @@
       </c>
       <c r="Q78" s="2">
         <f t="shared" si="6"/>
-        <v>5676.48</v>
+        <v>283.82400000000001</v>
       </c>
       <c r="R78" s="2">
         <f>Sheet1!$D$4</f>
@@ -7308,7 +7323,7 @@
       </c>
       <c r="S78" s="2">
         <f t="shared" si="7"/>
-        <v>3390.12</v>
+        <v>169.506</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -7352,7 +7367,7 @@
       </c>
       <c r="M79" s="2">
         <f t="shared" si="4"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N79" s="2">
         <f>Sheet1!$D$2</f>
@@ -7360,7 +7375,7 @@
       </c>
       <c r="O79" s="2">
         <f t="shared" si="5"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P79" s="2">
         <f>Sheet1!$D$3</f>
@@ -7368,7 +7383,7 @@
       </c>
       <c r="Q79" s="2">
         <f t="shared" si="6"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R79" s="2">
         <f>Sheet1!$D$4</f>
@@ -7376,7 +7391,7 @@
       </c>
       <c r="S79" s="2">
         <f t="shared" si="7"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -7420,7 +7435,7 @@
       </c>
       <c r="M80" s="2">
         <f t="shared" si="4"/>
-        <v>972.36</v>
+        <v>48.618000000000002</v>
       </c>
       <c r="N80" s="2">
         <f>Sheet1!$D$2</f>
@@ -7428,7 +7443,7 @@
       </c>
       <c r="O80" s="2">
         <f t="shared" si="5"/>
-        <v>499.32</v>
+        <v>24.966000000000001</v>
       </c>
       <c r="P80" s="2">
         <f>Sheet1!$D$3</f>
@@ -7436,7 +7451,7 @@
       </c>
       <c r="Q80" s="2">
         <f t="shared" si="6"/>
-        <v>18921.599999999999</v>
+        <v>946.07999999999993</v>
       </c>
       <c r="R80" s="2">
         <f>Sheet1!$D$4</f>
@@ -7444,7 +7459,7 @@
       </c>
       <c r="S80" s="2">
         <f t="shared" si="7"/>
-        <v>11300.4</v>
+        <v>565.02</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -7488,7 +7503,7 @@
       </c>
       <c r="M81" s="2">
         <f t="shared" si="4"/>
-        <v>1944.72</v>
+        <v>97.236000000000004</v>
       </c>
       <c r="N81" s="2">
         <f>Sheet1!$D$2</f>
@@ -7496,7 +7511,7 @@
       </c>
       <c r="O81" s="2">
         <f t="shared" si="5"/>
-        <v>998.64</v>
+        <v>49.932000000000002</v>
       </c>
       <c r="P81" s="2">
         <f>Sheet1!$D$3</f>
@@ -7504,7 +7519,7 @@
       </c>
       <c r="Q81" s="2">
         <f t="shared" si="6"/>
-        <v>37843.199999999997</v>
+        <v>1892.1599999999999</v>
       </c>
       <c r="R81" s="2">
         <f>Sheet1!$D$4</f>
@@ -7512,7 +7527,7 @@
       </c>
       <c r="S81" s="2">
         <f t="shared" si="7"/>
-        <v>22600.799999999999</v>
+        <v>1130.04</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -7556,7 +7571,7 @@
       </c>
       <c r="M82" s="2">
         <f t="shared" si="4"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N82" s="2">
         <f>Sheet1!$D$2</f>
@@ -7564,7 +7579,7 @@
       </c>
       <c r="O82" s="2">
         <f t="shared" si="5"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P82" s="2">
         <f>Sheet1!$D$3</f>
@@ -7572,7 +7587,7 @@
       </c>
       <c r="Q82" s="2">
         <f t="shared" si="6"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R82" s="2">
         <f>Sheet1!$D$4</f>
@@ -7580,7 +7595,7 @@
       </c>
       <c r="S82" s="2">
         <f t="shared" si="7"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -7624,7 +7639,7 @@
       </c>
       <c r="M83" s="2">
         <f t="shared" si="4"/>
-        <v>1750.248</v>
+        <v>87.512400000000014</v>
       </c>
       <c r="N83" s="2">
         <f>Sheet1!$D$2</f>
@@ -7632,7 +7647,7 @@
       </c>
       <c r="O83" s="2">
         <f t="shared" si="5"/>
-        <v>898.77599999999995</v>
+        <v>44.938800000000001</v>
       </c>
       <c r="P83" s="2">
         <f>Sheet1!$D$3</f>
@@ -7640,7 +7655,7 @@
       </c>
       <c r="Q83" s="2">
         <f t="shared" si="6"/>
-        <v>34058.879999999997</v>
+        <v>1702.944</v>
       </c>
       <c r="R83" s="2">
         <f>Sheet1!$D$4</f>
@@ -7648,7 +7663,7 @@
       </c>
       <c r="S83" s="2">
         <f t="shared" si="7"/>
-        <v>20340.72</v>
+        <v>1017.0360000000001</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -7692,7 +7707,7 @@
       </c>
       <c r="M84" s="2">
         <f t="shared" si="4"/>
-        <v>1944.72</v>
+        <v>97.236000000000004</v>
       </c>
       <c r="N84" s="2">
         <f>Sheet1!$D$2</f>
@@ -7700,7 +7715,7 @@
       </c>
       <c r="O84" s="2">
         <f t="shared" si="5"/>
-        <v>998.64</v>
+        <v>49.932000000000002</v>
       </c>
       <c r="P84" s="2">
         <f>Sheet1!$D$3</f>
@@ -7708,7 +7723,7 @@
       </c>
       <c r="Q84" s="2">
         <f t="shared" si="6"/>
-        <v>37843.199999999997</v>
+        <v>1892.1599999999999</v>
       </c>
       <c r="R84" s="2">
         <f>Sheet1!$D$4</f>
@@ -7716,7 +7731,7 @@
       </c>
       <c r="S84" s="2">
         <f t="shared" si="7"/>
-        <v>22600.799999999999</v>
+        <v>1130.04</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -7760,7 +7775,7 @@
       </c>
       <c r="M85" s="2">
         <f t="shared" si="4"/>
-        <v>3306.0239999999999</v>
+        <v>165.30119999999999</v>
       </c>
       <c r="N85" s="2">
         <f>Sheet1!$D$2</f>
@@ -7768,7 +7783,7 @@
       </c>
       <c r="O85" s="2">
         <f t="shared" si="5"/>
-        <v>1697.6880000000001</v>
+        <v>84.884400000000014</v>
       </c>
       <c r="P85" s="2">
         <f>Sheet1!$D$3</f>
@@ -7776,7 +7791,7 @@
       </c>
       <c r="Q85" s="2">
         <f t="shared" si="6"/>
-        <v>64333.440000000002</v>
+        <v>3216.6720000000005</v>
       </c>
       <c r="R85" s="2">
         <f>Sheet1!$D$4</f>
@@ -7784,7 +7799,7 @@
       </c>
       <c r="S85" s="2">
         <f t="shared" si="7"/>
-        <v>38421.360000000001</v>
+        <v>1921.0680000000002</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -7828,7 +7843,7 @@
       </c>
       <c r="M86" s="2">
         <f t="shared" si="4"/>
-        <v>681333332.65199995</v>
+        <v>34066666.632600002</v>
       </c>
       <c r="N86" s="2">
         <f>Sheet1!$D$2</f>
@@ -7836,7 +7851,7 @@
       </c>
       <c r="O86" s="2">
         <f t="shared" si="5"/>
-        <v>349873873.52399999</v>
+        <v>17493693.676199999</v>
       </c>
       <c r="P86" s="2">
         <f>Sheet1!$D$3</f>
@@ -7844,7 +7859,7 @@
       </c>
       <c r="Q86" s="2">
         <f t="shared" si="6"/>
-        <v>13258378365.120001</v>
+        <v>662918918.25600004</v>
       </c>
       <c r="R86" s="2">
         <f>Sheet1!$D$4</f>
@@ -7852,7 +7867,7 @@
       </c>
       <c r="S86" s="2">
         <f t="shared" si="7"/>
-        <v>7918198190.2799997</v>
+        <v>395909909.514</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -7896,7 +7911,7 @@
       </c>
       <c r="M87" s="2">
         <f t="shared" si="4"/>
-        <v>145.85400000000001</v>
+        <v>7.2927000000000008</v>
       </c>
       <c r="N87" s="2">
         <f>Sheet1!$D$2</f>
@@ -7904,7 +7919,7 @@
       </c>
       <c r="O87" s="2">
         <f t="shared" si="5"/>
-        <v>74.897999999999996</v>
+        <v>3.7448999999999999</v>
       </c>
       <c r="P87" s="2">
         <f>Sheet1!$D$3</f>
@@ -7912,7 +7927,7 @@
       </c>
       <c r="Q87" s="2">
         <f t="shared" si="6"/>
-        <v>2838.24</v>
+        <v>141.91200000000001</v>
       </c>
       <c r="R87" s="2">
         <f>Sheet1!$D$4</f>
@@ -7920,7 +7935,7 @@
       </c>
       <c r="S87" s="2">
         <f t="shared" si="7"/>
-        <v>1695.06</v>
+        <v>84.753</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
@@ -7964,7 +7979,7 @@
       </c>
       <c r="M88" s="2">
         <f t="shared" si="4"/>
-        <v>3241.2</v>
+        <v>162.06</v>
       </c>
       <c r="N88" s="2">
         <f>Sheet1!$D$2</f>
@@ -7972,7 +7987,7 @@
       </c>
       <c r="O88" s="2">
         <f t="shared" si="5"/>
-        <v>1664.4</v>
+        <v>83.220000000000013</v>
       </c>
       <c r="P88" s="2">
         <f>Sheet1!$D$3</f>
@@ -7980,7 +7995,7 @@
       </c>
       <c r="Q88" s="2">
         <f t="shared" si="6"/>
-        <v>63072</v>
+        <v>3153.6000000000004</v>
       </c>
       <c r="R88" s="2">
         <f>Sheet1!$D$4</f>
@@ -7988,7 +8003,7 @@
       </c>
       <c r="S88" s="2">
         <f t="shared" si="7"/>
-        <v>37668</v>
+        <v>1883.4</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
@@ -8032,7 +8047,7 @@
       </c>
       <c r="M89" s="2">
         <f t="shared" si="4"/>
-        <v>97.236000000000004</v>
+        <v>4.8618000000000006</v>
       </c>
       <c r="N89" s="2">
         <f>Sheet1!$D$2</f>
@@ -8040,7 +8055,7 @@
       </c>
       <c r="O89" s="2">
         <f t="shared" si="5"/>
-        <v>49.932000000000002</v>
+        <v>2.4966000000000004</v>
       </c>
       <c r="P89" s="2">
         <f>Sheet1!$D$3</f>
@@ -8048,7 +8063,7 @@
       </c>
       <c r="Q89" s="2">
         <f t="shared" si="6"/>
-        <v>1892.16</v>
+        <v>94.608000000000004</v>
       </c>
       <c r="R89" s="2">
         <f>Sheet1!$D$4</f>
@@ -8056,7 +8071,7 @@
       </c>
       <c r="S89" s="2">
         <f t="shared" si="7"/>
-        <v>1130.04</v>
+        <v>56.502000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
@@ -8100,7 +8115,7 @@
       </c>
       <c r="M90" s="2">
         <f t="shared" si="4"/>
-        <v>382.46159999999998</v>
+        <v>19.123079999999998</v>
       </c>
       <c r="N90" s="2">
         <f>Sheet1!$D$2</f>
@@ -8108,7 +8123,7 @@
       </c>
       <c r="O90" s="2">
         <f t="shared" si="5"/>
-        <v>196.39920000000001</v>
+        <v>9.8199600000000018</v>
       </c>
       <c r="P90" s="2">
         <f>Sheet1!$D$3</f>
@@ -8116,7 +8131,7 @@
       </c>
       <c r="Q90" s="2">
         <f t="shared" si="6"/>
-        <v>7442.4960000000001</v>
+        <v>372.12480000000005</v>
       </c>
       <c r="R90" s="2">
         <f>Sheet1!$D$4</f>
@@ -8124,7 +8139,7 @@
       </c>
       <c r="S90" s="2">
         <f t="shared" si="7"/>
-        <v>4444.8239999999996</v>
+        <v>222.24119999999999</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
@@ -8168,7 +8183,7 @@
       </c>
       <c r="M91" s="2">
         <f t="shared" si="4"/>
-        <v>97.236000000000004</v>
+        <v>4.8618000000000006</v>
       </c>
       <c r="N91" s="2">
         <f>Sheet1!$D$2</f>
@@ -8176,7 +8191,7 @@
       </c>
       <c r="O91" s="2">
         <f t="shared" si="5"/>
-        <v>49.932000000000002</v>
+        <v>2.4966000000000004</v>
       </c>
       <c r="P91" s="2">
         <f>Sheet1!$D$3</f>
@@ -8184,7 +8199,7 @@
       </c>
       <c r="Q91" s="2">
         <f t="shared" si="6"/>
-        <v>1892.16</v>
+        <v>94.608000000000004</v>
       </c>
       <c r="R91" s="2">
         <f>Sheet1!$D$4</f>
@@ -8192,7 +8207,7 @@
       </c>
       <c r="S91" s="2">
         <f t="shared" si="7"/>
-        <v>1130.04</v>
+        <v>56.502000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -8236,7 +8251,7 @@
       </c>
       <c r="M92" s="2">
         <f t="shared" si="4"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N92" s="2">
         <f>Sheet1!$D$2</f>
@@ -8244,7 +8259,7 @@
       </c>
       <c r="O92" s="2">
         <f t="shared" si="5"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P92" s="2">
         <f>Sheet1!$D$3</f>
@@ -8252,7 +8267,7 @@
       </c>
       <c r="Q92" s="2">
         <f t="shared" si="6"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R92" s="2">
         <f>Sheet1!$D$4</f>
@@ -8260,7 +8275,7 @@
       </c>
       <c r="S92" s="2">
         <f t="shared" si="7"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
@@ -8304,7 +8319,7 @@
       </c>
       <c r="M93" s="2">
         <f t="shared" si="4"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N93" s="2">
         <f>Sheet1!$D$2</f>
@@ -8312,7 +8327,7 @@
       </c>
       <c r="O93" s="2">
         <f t="shared" si="5"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P93" s="2">
         <f>Sheet1!$D$3</f>
@@ -8320,7 +8335,7 @@
       </c>
       <c r="Q93" s="2">
         <f t="shared" si="6"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R93" s="2">
         <f>Sheet1!$D$4</f>
@@ -8328,7 +8343,7 @@
       </c>
       <c r="S93" s="2">
         <f t="shared" si="7"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
@@ -8372,7 +8387,7 @@
       </c>
       <c r="M94" s="2">
         <f t="shared" si="4"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N94" s="2">
         <f>Sheet1!$D$2</f>
@@ -8380,7 +8395,7 @@
       </c>
       <c r="O94" s="2">
         <f t="shared" si="5"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P94" s="2">
         <f>Sheet1!$D$3</f>
@@ -8388,7 +8403,7 @@
       </c>
       <c r="Q94" s="2">
         <f t="shared" si="6"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R94" s="2">
         <f>Sheet1!$D$4</f>
@@ -8396,7 +8411,7 @@
       </c>
       <c r="S94" s="2">
         <f t="shared" si="7"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
@@ -8440,7 +8455,7 @@
       </c>
       <c r="M95" s="2">
         <f t="shared" si="4"/>
-        <v>388.94400000000002</v>
+        <v>19.447200000000002</v>
       </c>
       <c r="N95" s="2">
         <f>Sheet1!$D$2</f>
@@ -8448,7 +8463,7 @@
       </c>
       <c r="O95" s="2">
         <f t="shared" si="5"/>
-        <v>199.72800000000001</v>
+        <v>9.9864000000000015</v>
       </c>
       <c r="P95" s="2">
         <f>Sheet1!$D$3</f>
@@ -8456,7 +8471,7 @@
       </c>
       <c r="Q95" s="2">
         <f t="shared" si="6"/>
-        <v>7568.64</v>
+        <v>378.43200000000002</v>
       </c>
       <c r="R95" s="2">
         <f>Sheet1!$D$4</f>
@@ -8464,7 +8479,7 @@
       </c>
       <c r="S95" s="2">
         <f t="shared" si="7"/>
-        <v>4520.16</v>
+        <v>226.00800000000001</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
@@ -8508,7 +8523,7 @@
       </c>
       <c r="M96" s="2">
         <f t="shared" si="4"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N96" s="2">
         <f>Sheet1!$D$2</f>
@@ -8516,7 +8531,7 @@
       </c>
       <c r="O96" s="2">
         <f t="shared" si="5"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P96" s="2">
         <f>Sheet1!$D$3</f>
@@ -8524,7 +8539,7 @@
       </c>
       <c r="Q96" s="2">
         <f t="shared" si="6"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R96" s="2">
         <f>Sheet1!$D$4</f>
@@ -8532,7 +8547,7 @@
       </c>
       <c r="S96" s="2">
         <f t="shared" si="7"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
@@ -8576,7 +8591,7 @@
       </c>
       <c r="M97" s="2">
         <f t="shared" si="4"/>
-        <v>2139.192</v>
+        <v>106.95960000000001</v>
       </c>
       <c r="N97" s="2">
         <f>Sheet1!$D$2</f>
@@ -8584,7 +8599,7 @@
       </c>
       <c r="O97" s="2">
         <f t="shared" si="5"/>
-        <v>1098.5039999999999</v>
+        <v>54.925199999999997</v>
       </c>
       <c r="P97" s="2">
         <f>Sheet1!$D$3</f>
@@ -8592,7 +8607,7 @@
       </c>
       <c r="Q97" s="2">
         <f t="shared" si="6"/>
-        <v>41627.519999999997</v>
+        <v>2081.3759999999997</v>
       </c>
       <c r="R97" s="2">
         <f>Sheet1!$D$4</f>
@@ -8600,7 +8615,7 @@
       </c>
       <c r="S97" s="2">
         <f t="shared" si="7"/>
-        <v>24860.880000000001</v>
+        <v>1243.0440000000001</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
@@ -8644,7 +8659,7 @@
       </c>
       <c r="M98" s="2">
         <f t="shared" si="4"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N98" s="2">
         <f>Sheet1!$D$2</f>
@@ -8652,7 +8667,7 @@
       </c>
       <c r="O98" s="2">
         <f t="shared" si="5"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P98" s="2">
         <f>Sheet1!$D$3</f>
@@ -8660,7 +8675,7 @@
       </c>
       <c r="Q98" s="2">
         <f t="shared" si="6"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R98" s="2">
         <f>Sheet1!$D$4</f>
@@ -8668,7 +8683,7 @@
       </c>
       <c r="S98" s="2">
         <f t="shared" si="7"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
@@ -8712,7 +8727,7 @@
       </c>
       <c r="M99" s="2">
         <f t="shared" si="4"/>
-        <v>1069.596</v>
+        <v>53.479800000000004</v>
       </c>
       <c r="N99" s="2">
         <f>Sheet1!$D$2</f>
@@ -8720,7 +8735,7 @@
       </c>
       <c r="O99" s="2">
         <f t="shared" si="5"/>
-        <v>549.25199999999995</v>
+        <v>27.462599999999998</v>
       </c>
       <c r="P99" s="2">
         <f>Sheet1!$D$3</f>
@@ -8728,7 +8743,7 @@
       </c>
       <c r="Q99" s="2">
         <f t="shared" si="6"/>
-        <v>20813.759999999998</v>
+        <v>1040.6879999999999</v>
       </c>
       <c r="R99" s="2">
         <f>Sheet1!$D$4</f>
@@ -8736,7 +8751,7 @@
       </c>
       <c r="S99" s="2">
         <f t="shared" si="7"/>
-        <v>12430.44</v>
+        <v>621.52200000000005</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
@@ -8780,7 +8795,7 @@
       </c>
       <c r="M100" s="2">
         <f t="shared" si="4"/>
-        <v>1069.596</v>
+        <v>53.479800000000004</v>
       </c>
       <c r="N100" s="2">
         <f>Sheet1!$D$2</f>
@@ -8788,7 +8803,7 @@
       </c>
       <c r="O100" s="2">
         <f t="shared" si="5"/>
-        <v>549.25199999999995</v>
+        <v>27.462599999999998</v>
       </c>
       <c r="P100" s="2">
         <f>Sheet1!$D$3</f>
@@ -8796,7 +8811,7 @@
       </c>
       <c r="Q100" s="2">
         <f t="shared" si="6"/>
-        <v>20813.759999999998</v>
+        <v>1040.6879999999999</v>
       </c>
       <c r="R100" s="2">
         <f>Sheet1!$D$4</f>
@@ -8804,7 +8819,7 @@
       </c>
       <c r="S100" s="2">
         <f t="shared" si="7"/>
-        <v>12430.44</v>
+        <v>621.52200000000005</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
@@ -8848,7 +8863,7 @@
       </c>
       <c r="M101" s="2">
         <f t="shared" si="4"/>
-        <v>4278.384</v>
+        <v>213.91920000000002</v>
       </c>
       <c r="N101" s="2">
         <f>Sheet1!$D$2</f>
@@ -8856,7 +8871,7 @@
       </c>
       <c r="O101" s="2">
         <f t="shared" si="5"/>
-        <v>2197.0079999999998</v>
+        <v>109.85039999999999</v>
       </c>
       <c r="P101" s="2">
         <f>Sheet1!$D$3</f>
@@ -8864,7 +8879,7 @@
       </c>
       <c r="Q101" s="2">
         <f t="shared" si="6"/>
-        <v>83255.039999999994</v>
+        <v>4162.7519999999995</v>
       </c>
       <c r="R101" s="2">
         <f>Sheet1!$D$4</f>
@@ -8872,7 +8887,7 @@
       </c>
       <c r="S101" s="2">
         <f t="shared" si="7"/>
-        <v>49721.760000000002</v>
+        <v>2486.0880000000002</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
@@ -8916,7 +8931,7 @@
       </c>
       <c r="M102" s="2">
         <f t="shared" si="4"/>
-        <v>2139.192</v>
+        <v>106.95960000000001</v>
       </c>
       <c r="N102" s="2">
         <f>Sheet1!$D$2</f>
@@ -8924,7 +8939,7 @@
       </c>
       <c r="O102" s="2">
         <f t="shared" si="5"/>
-        <v>1098.5039999999999</v>
+        <v>54.925199999999997</v>
       </c>
       <c r="P102" s="2">
         <f>Sheet1!$D$3</f>
@@ -8932,7 +8947,7 @@
       </c>
       <c r="Q102" s="2">
         <f t="shared" si="6"/>
-        <v>41627.519999999997</v>
+        <v>2081.3759999999997</v>
       </c>
       <c r="R102" s="2">
         <f>Sheet1!$D$4</f>
@@ -8940,7 +8955,7 @@
       </c>
       <c r="S102" s="2">
         <f t="shared" si="7"/>
-        <v>24860.880000000001</v>
+        <v>1243.0440000000001</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
@@ -8984,7 +8999,7 @@
       </c>
       <c r="M103" s="2">
         <f t="shared" si="4"/>
-        <v>4537.68</v>
+        <v>226.88400000000001</v>
       </c>
       <c r="N103" s="2">
         <f>Sheet1!$D$2</f>
@@ -8992,7 +9007,7 @@
       </c>
       <c r="O103" s="2">
         <f t="shared" si="5"/>
-        <v>2330.16</v>
+        <v>116.508</v>
       </c>
       <c r="P103" s="2">
         <f>Sheet1!$D$3</f>
@@ -9000,7 +9015,7 @@
       </c>
       <c r="Q103" s="2">
         <f t="shared" si="6"/>
-        <v>88300.800000000003</v>
+        <v>4415.04</v>
       </c>
       <c r="R103" s="2">
         <f>Sheet1!$D$4</f>
@@ -9008,7 +9023,7 @@
       </c>
       <c r="S103" s="2">
         <f t="shared" si="7"/>
-        <v>52735.199999999997</v>
+        <v>2636.76</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
@@ -9052,7 +9067,7 @@
       </c>
       <c r="M104" s="2">
         <f t="shared" si="4"/>
-        <v>1069.596</v>
+        <v>53.479800000000004</v>
       </c>
       <c r="N104" s="2">
         <f>Sheet1!$D$2</f>
@@ -9060,7 +9075,7 @@
       </c>
       <c r="O104" s="2">
         <f t="shared" si="5"/>
-        <v>549.25199999999995</v>
+        <v>27.462599999999998</v>
       </c>
       <c r="P104" s="2">
         <f>Sheet1!$D$3</f>
@@ -9068,7 +9083,7 @@
       </c>
       <c r="Q104" s="2">
         <f t="shared" si="6"/>
-        <v>20813.759999999998</v>
+        <v>1040.6879999999999</v>
       </c>
       <c r="R104" s="2">
         <f>Sheet1!$D$4</f>
@@ -9076,7 +9091,7 @@
       </c>
       <c r="S104" s="2">
         <f t="shared" si="7"/>
-        <v>12430.44</v>
+        <v>621.52200000000005</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
@@ -9188,7 +9203,7 @@
       </c>
       <c r="M106" s="2">
         <f t="shared" si="4"/>
-        <v>102.09780000000001</v>
+        <v>5.104890000000001</v>
       </c>
       <c r="N106" s="2">
         <f>Sheet1!$D$2</f>
@@ -9196,7 +9211,7 @@
       </c>
       <c r="O106" s="2">
         <f t="shared" si="5"/>
-        <v>52.428600000000003</v>
+        <v>2.6214300000000001</v>
       </c>
       <c r="P106" s="2">
         <f>Sheet1!$D$3</f>
@@ -9204,7 +9219,7 @@
       </c>
       <c r="Q106" s="2">
         <f t="shared" si="6"/>
-        <v>1986.768</v>
+        <v>99.338400000000007</v>
       </c>
       <c r="R106" s="2">
         <f>Sheet1!$D$4</f>
@@ -9212,7 +9227,7 @@
       </c>
       <c r="S106" s="2">
         <f t="shared" si="7"/>
-        <v>1186.5419999999999</v>
+        <v>59.327100000000002</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
@@ -9256,7 +9271,7 @@
       </c>
       <c r="M107" s="2">
         <f t="shared" si="4"/>
-        <v>729.27</v>
+        <v>36.463500000000003</v>
       </c>
       <c r="N107" s="2">
         <f>Sheet1!$D$2</f>
@@ -9264,7 +9279,7 @@
       </c>
       <c r="O107" s="2">
         <f t="shared" si="5"/>
-        <v>374.49</v>
+        <v>18.724500000000003</v>
       </c>
       <c r="P107" s="2">
         <f>Sheet1!$D$3</f>
@@ -9272,7 +9287,7 @@
       </c>
       <c r="Q107" s="2">
         <f t="shared" si="6"/>
-        <v>14191.2</v>
+        <v>709.56000000000006</v>
       </c>
       <c r="R107" s="2">
         <f>Sheet1!$D$4</f>
@@ -9280,7 +9295,7 @@
       </c>
       <c r="S107" s="2">
         <f t="shared" si="7"/>
-        <v>8475.2999999999993</v>
+        <v>423.76499999999999</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
@@ -9460,7 +9475,7 @@
       </c>
       <c r="M110" s="2">
         <f t="shared" si="4"/>
-        <v>259.29599999999999</v>
+        <v>12.9648</v>
       </c>
       <c r="N110" s="2">
         <f>Sheet1!$D$2</f>
@@ -9468,7 +9483,7 @@
       </c>
       <c r="O110" s="2">
         <f t="shared" si="5"/>
-        <v>133.15199999999999</v>
+        <v>6.6575999999999995</v>
       </c>
       <c r="P110" s="2">
         <f>Sheet1!$D$3</f>
@@ -9476,7 +9491,7 @@
       </c>
       <c r="Q110" s="2">
         <f t="shared" si="6"/>
-        <v>5045.76</v>
+        <v>252.28800000000001</v>
       </c>
       <c r="R110" s="2">
         <f>Sheet1!$D$4</f>
@@ -9484,7 +9499,7 @@
       </c>
       <c r="S110" s="2">
         <f t="shared" si="7"/>
-        <v>3013.44</v>
+        <v>150.672</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
@@ -9528,7 +9543,7 @@
       </c>
       <c r="M111" s="2">
         <f t="shared" si="4"/>
-        <v>129.648</v>
+        <v>6.4824000000000002</v>
       </c>
       <c r="N111" s="2">
         <f>Sheet1!$D$2</f>
@@ -9536,7 +9551,7 @@
       </c>
       <c r="O111" s="2">
         <f t="shared" si="5"/>
-        <v>66.575999999999993</v>
+        <v>3.3287999999999998</v>
       </c>
       <c r="P111" s="2">
         <f>Sheet1!$D$3</f>
@@ -9544,7 +9559,7 @@
       </c>
       <c r="Q111" s="2">
         <f t="shared" si="6"/>
-        <v>2522.88</v>
+        <v>126.14400000000001</v>
       </c>
       <c r="R111" s="2">
         <f>Sheet1!$D$4</f>
@@ -9552,7 +9567,7 @@
       </c>
       <c r="S111" s="2">
         <f t="shared" si="7"/>
-        <v>1506.72</v>
+        <v>75.335999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9564,7 +9579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8B1C4F-5CEA-4C2E-971A-5032F5680475}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Asset Data/IGP/Asset_Data_IGP/Coal Plants/coal_plants_main.xlsx
+++ b/Asset Data/IGP/Asset_Data_IGP/Coal Plants/coal_plants_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APAD_oxford\Final_Dataset_Folder\dataset\APAD-Asset-Data\Asset Data\IGP\Asset_Data_IGP\Coal Plants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35952157-4B0A-490B-B5C3-C22B863FC1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D38C1E-291E-4331-95AF-D1C59C234548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8452AE1-DF3A-49AB-8A59-5FF8DBEFBD01}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{E8452AE1-DF3A-49AB-8A59-5FF8DBEFBD01}"/>
   </bookViews>
   <sheets>
     <sheet name="coal_plants_main" sheetId="1" r:id="rId1"/>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE183BC9-8D34-443D-A17E-A52D34E7E81A}">
   <dimension ref="A1:T108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="V107" sqref="V107"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9799,7 +9799,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
